--- a/public/admin/approvedcandidates_formate.xlsx
+++ b/public/admin/approvedcandidates_formate.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="301" uniqueCount="272">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="299" uniqueCount="271">
   <si>
     <t>Client_Name</t>
   </si>
@@ -258,7 +258,7 @@
     <t>CTC</t>
   </si>
   <si>
-    <t>dcs_approval</t>
+    <t>Dcs_Approval</t>
   </si>
   <si>
     <t>Password</t>
@@ -282,6 +282,9 @@
     <t>sunil@webomindapps.com</t>
   </si>
   <si>
+    <t>14-5-2025</t>
+  </si>
+  <si>
     <t>15-5-2025</t>
   </si>
   <si>
@@ -471,6 +474,9 @@
     <t>TTP Technologies Private Limited</t>
   </si>
   <si>
+    <t>Others</t>
+  </si>
+  <si>
     <t>A+</t>
   </si>
   <si>
@@ -615,7 +621,7 @@
     <t>MADHYA PRADESH</t>
   </si>
   <si>
-    <t>BBA</t>
+    <t>Graduate</t>
   </si>
   <si>
     <t>Rapidue Technologies Pvt Ltd</t>
@@ -624,7 +630,7 @@
     <t>MAHARASHTRA</t>
   </si>
   <si>
-    <t>BCOM</t>
+    <t>Under_Graduate</t>
   </si>
   <si>
     <t>Loadshare Networks Pvt Ltd</t>
@@ -633,7 +639,7 @@
     <t>MANIPUR</t>
   </si>
   <si>
-    <t>BCA</t>
+    <t>Post_Graduate</t>
   </si>
   <si>
     <t>Threpsi Solutions Private Limited</t>
@@ -642,7 +648,7 @@
     <t>MEGHALAYA</t>
   </si>
   <si>
-    <t>BE</t>
+    <t>DIPLOMA</t>
   </si>
   <si>
     <t>Supr Infotech Solutions Private Limited</t>
@@ -651,7 +657,7 @@
     <t>MIZORAM</t>
   </si>
   <si>
-    <t>MBA</t>
+    <t>ENGINEERING</t>
   </si>
   <si>
     <t>Farmtheory Private Limited</t>
@@ -660,7 +666,7 @@
     <t>NAGALAND</t>
   </si>
   <si>
-    <t>MCOM</t>
+    <t>PHD</t>
   </si>
   <si>
     <t>Blue Dart Aviation  Ltd.</t>
@@ -669,25 +675,16 @@
     <t>ORISSA</t>
   </si>
   <si>
-    <t>DIPLOMA</t>
-  </si>
-  <si>
     <t>NEWLOOP LOGISTICS PRIVATE LIMITED</t>
   </si>
   <si>
     <t>PONDICHERY</t>
   </si>
   <si>
-    <t>ENGINEERING</t>
-  </si>
-  <si>
     <t>LYNKS LOGISTICS LIMITED</t>
   </si>
   <si>
     <t>PUNJAB</t>
-  </si>
-  <si>
-    <t>PHD</t>
   </si>
   <si>
     <t>GRANARY WHOLESALE PRIVATE LIMITED</t>
@@ -850,11 +847,12 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
-  <numFmts count="4">
+  <numFmts count="5">
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="m/d/yyyy;@"/>
   </numFmts>
   <fonts count="23">
     <font>
@@ -1489,11 +1487,11 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="58" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="6">
       <alignment vertical="center"/>
@@ -2036,249 +2034,267 @@
   <sheetPr/>
   <dimension ref="A1:BZ11"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleSheetLayoutView="60" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="I1" sqref="I1"/>
+    <sheetView tabSelected="1" zoomScaleSheetLayoutView="60" topLeftCell="AG1" workbookViewId="0">
+      <selection activeCell="AK1" sqref="AK1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="77" width="34.2222222222222" customWidth="1"/>
+    <col min="1" max="6" width="34.2222222222222" customWidth="1"/>
+    <col min="7" max="9" width="34.2222222222222" style="4" customWidth="1"/>
+    <col min="10" max="15" width="34.2222222222222" customWidth="1"/>
+    <col min="16" max="16" width="34.2222222222222" style="4" customWidth="1"/>
+    <col min="17" max="18" width="34.2222222222222" customWidth="1"/>
+    <col min="19" max="19" width="34.2222222222222" style="4" customWidth="1"/>
+    <col min="20" max="21" width="34.2222222222222" customWidth="1"/>
+    <col min="22" max="22" width="34.2222222222222" style="4" customWidth="1"/>
+    <col min="23" max="26" width="34.2222222222222" customWidth="1"/>
+    <col min="27" max="27" width="34.2222222222222" style="4" customWidth="1"/>
+    <col min="28" max="30" width="34.2222222222222" customWidth="1"/>
+    <col min="31" max="31" width="34.2222222222222" style="4" customWidth="1"/>
+    <col min="32" max="33" width="34.2222222222222" customWidth="1"/>
+    <col min="34" max="34" width="34.2222222222222" style="4" customWidth="1"/>
+    <col min="35" max="36" width="34.2222222222222" customWidth="1"/>
+    <col min="37" max="37" width="34.2222222222222" style="4" customWidth="1"/>
+    <col min="38" max="39" width="34.2222222222222" customWidth="1"/>
+    <col min="40" max="40" width="34.2222222222222" style="4" customWidth="1"/>
+    <col min="41" max="77" width="34.2222222222222" customWidth="1"/>
     <col min="78" max="78" width="14" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" s="3" customFormat="1" ht="19.4" customHeight="1" spans="1:78">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="F1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="G1" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="H1" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="4" t="s">
+      <c r="I1" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="4" t="s">
+      <c r="J1" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="4" t="s">
+      <c r="K1" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="4" t="s">
+      <c r="L1" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="4" t="s">
+      <c r="M1" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="4" t="s">
+      <c r="N1" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="4" t="s">
+      <c r="O1" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="4" t="s">
+      <c r="P1" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="4" t="s">
+      <c r="Q1" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="4" t="s">
+      <c r="R1" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="4" t="s">
+      <c r="S1" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="T1" s="4" t="s">
+      <c r="T1" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="U1" s="4" t="s">
+      <c r="U1" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="V1" s="4" t="s">
+      <c r="V1" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="W1" s="4" t="s">
+      <c r="W1" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="X1" s="4" t="s">
+      <c r="X1" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="Y1" s="4" t="s">
+      <c r="Y1" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="Z1" s="4" t="s">
+      <c r="Z1" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="AA1" s="4" t="s">
+      <c r="AA1" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="AB1" s="4" t="s">
+      <c r="AB1" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="AC1" s="4" t="s">
+      <c r="AC1" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="AD1" s="4" t="s">
+      <c r="AD1" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="AE1" s="4" t="s">
+      <c r="AE1" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="AF1" s="4" t="s">
+      <c r="AF1" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="AG1" s="4" t="s">
+      <c r="AG1" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="AH1" s="4" t="s">
+      <c r="AH1" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="AI1" s="4" t="s">
+      <c r="AI1" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="AJ1" s="4" t="s">
+      <c r="AJ1" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="AK1" s="4" t="s">
+      <c r="AK1" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="AL1" s="4" t="s">
+      <c r="AL1" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="AM1" s="4" t="s">
+      <c r="AM1" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="AN1" s="4" t="s">
+      <c r="AN1" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="AO1" s="4" t="s">
+      <c r="AO1" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="AP1" s="4" t="s">
+      <c r="AP1" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="AQ1" s="4" t="s">
+      <c r="AQ1" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="AR1" s="4" t="s">
+      <c r="AR1" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="AS1" s="4" t="s">
+      <c r="AS1" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="AT1" s="4" t="s">
+      <c r="AT1" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="AU1" s="4" t="s">
+      <c r="AU1" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="AV1" s="4" t="s">
+      <c r="AV1" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="AW1" s="4" t="s">
+      <c r="AW1" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="AX1" s="4" t="s">
+      <c r="AX1" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="AY1" s="4" t="s">
+      <c r="AY1" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="AZ1" s="4" t="s">
+      <c r="AZ1" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="BA1" s="4" t="s">
+      <c r="BA1" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="BB1" s="4" t="s">
+      <c r="BB1" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="BC1" s="4" t="s">
+      <c r="BC1" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="BD1" s="4" t="s">
+      <c r="BD1" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="BE1" s="4" t="s">
+      <c r="BE1" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="BF1" s="4" t="s">
+      <c r="BF1" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="BG1" s="4" t="s">
+      <c r="BG1" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="BH1" s="4" t="s">
+      <c r="BH1" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="BI1" s="4" t="s">
+      <c r="BI1" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="BJ1" s="4" t="s">
+      <c r="BJ1" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="BK1" s="4" t="s">
+      <c r="BK1" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="BL1" s="4" t="s">
+      <c r="BL1" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="BM1" s="4" t="s">
+      <c r="BM1" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="BN1" s="4" t="s">
+      <c r="BN1" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="BO1" s="4" t="s">
+      <c r="BO1" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="BP1" s="4" t="s">
+      <c r="BP1" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="BQ1" s="4" t="s">
+      <c r="BQ1" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="BR1" s="4" t="s">
+      <c r="BR1" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="BS1" s="4" t="s">
+      <c r="BS1" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="BT1" s="4" t="s">
+      <c r="BT1" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="BU1" s="4" t="s">
+      <c r="BU1" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="BV1" s="4" t="s">
+      <c r="BV1" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="BW1" s="4" t="s">
+      <c r="BW1" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="BX1" s="4" t="s">
+      <c r="BX1" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="BY1" s="4" t="s">
+      <c r="BY1" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="BZ1" s="4" t="s">
+      <c r="BZ1" s="3" t="s">
         <v>77</v>
       </c>
     </row>
@@ -2301,140 +2317,140 @@
       <c r="F2" t="s">
         <v>83</v>
       </c>
-      <c r="G2" s="5">
-        <v>45662</v>
-      </c>
-      <c r="H2" t="s">
+      <c r="G2" s="4" t="s">
         <v>84</v>
       </c>
-      <c r="I2" t="s">
+      <c r="H2" s="4" t="s">
         <v>85</v>
       </c>
+      <c r="I2" s="4" t="s">
+        <v>86</v>
+      </c>
       <c r="J2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="K2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="L2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="M2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="N2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="O2" t="s">
-        <v>91</v>
-      </c>
-      <c r="P2" t="s">
         <v>92</v>
       </c>
+      <c r="P2" s="4" t="s">
+        <v>93</v>
+      </c>
       <c r="Q2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="R2" t="s">
-        <v>94</v>
-      </c>
-      <c r="S2" t="s">
         <v>95</v>
       </c>
+      <c r="S2" s="4" t="s">
+        <v>96</v>
+      </c>
       <c r="T2" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="U2" t="s">
+        <v>98</v>
+      </c>
+      <c r="V2" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="U2" t="s">
-        <v>97</v>
-      </c>
-      <c r="V2" s="5">
-        <v>27554</v>
-      </c>
       <c r="W2" s="7" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="X2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="Y2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="Z2" t="s">
-        <v>101</v>
-      </c>
-      <c r="AA2" t="s">
-        <v>101</v>
+        <v>102</v>
+      </c>
+      <c r="AA2" s="4" t="s">
+        <v>102</v>
       </c>
       <c r="AB2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="AC2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="AD2" t="s">
-        <v>101</v>
-      </c>
-      <c r="AE2" t="s">
-        <v>101</v>
+        <v>102</v>
+      </c>
+      <c r="AE2" s="4" t="s">
+        <v>96</v>
       </c>
       <c r="AF2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="AG2" t="s">
-        <v>101</v>
-      </c>
-      <c r="AH2" t="s">
-        <v>101</v>
+        <v>102</v>
+      </c>
+      <c r="AH2" s="4">
+        <v>45877</v>
       </c>
       <c r="AI2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="AJ2" t="s">
-        <v>101</v>
-      </c>
-      <c r="AK2" t="s">
-        <v>101</v>
+        <v>102</v>
+      </c>
+      <c r="AK2" s="4" t="s">
+        <v>96</v>
       </c>
       <c r="AL2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="AM2" t="s">
-        <v>101</v>
-      </c>
-      <c r="AN2" t="s">
-        <v>101</v>
+        <v>102</v>
+      </c>
+      <c r="AN2" s="4" t="s">
+        <v>102</v>
       </c>
       <c r="AO2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="AP2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="AQ2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="AR2">
         <v>159874632</v>
       </c>
       <c r="AS2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="AT2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="AU2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="AV2">
         <v>1587423690</v>
       </c>
       <c r="AW2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="AX2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="AY2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="AZ2">
         <v>2316548</v>
@@ -2443,22 +2459,22 @@
         <v>12651897790</v>
       </c>
       <c r="BB2" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="BC2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="BD2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="BE2" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="BF2" s="7" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="BG2" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="BH2">
         <v>7850</v>
@@ -2506,616 +2522,58 @@
         <v>50</v>
       </c>
       <c r="BY2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="BZ2" s="6" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="3" spans="7:78">
-      <c r="G3" s="5"/>
-      <c r="H3"/>
-      <c r="I3"/>
-      <c r="J3"/>
-      <c r="K3"/>
-      <c r="L3"/>
-      <c r="M3"/>
-      <c r="N3"/>
-      <c r="O3"/>
-      <c r="P3"/>
-      <c r="Q3"/>
-      <c r="R3"/>
-      <c r="S3"/>
-      <c r="T3"/>
-      <c r="U3"/>
-      <c r="V3" s="5"/>
-      <c r="W3"/>
-      <c r="X3"/>
-      <c r="Y3"/>
-      <c r="Z3"/>
-      <c r="AA3"/>
-      <c r="AB3"/>
-      <c r="AC3"/>
-      <c r="AD3"/>
-      <c r="AE3"/>
-      <c r="AF3"/>
-      <c r="AG3"/>
-      <c r="AH3"/>
-      <c r="AI3"/>
-      <c r="AJ3"/>
-      <c r="AK3"/>
-      <c r="AL3"/>
-      <c r="AM3"/>
-      <c r="AN3"/>
-      <c r="AO3"/>
-      <c r="AP3"/>
-      <c r="AQ3"/>
-      <c r="AR3"/>
-      <c r="AS3"/>
-      <c r="AT3"/>
-      <c r="AU3"/>
-      <c r="AV3"/>
-      <c r="AW3"/>
-      <c r="AX3"/>
-      <c r="AY3"/>
-      <c r="AZ3"/>
-      <c r="BA3"/>
-      <c r="BB3"/>
-      <c r="BC3"/>
-      <c r="BD3"/>
-      <c r="BE3"/>
-      <c r="BF3"/>
-      <c r="BG3"/>
-      <c r="BH3"/>
-      <c r="BI3"/>
-      <c r="BJ3"/>
-      <c r="BK3"/>
-      <c r="BL3"/>
-      <c r="BM3"/>
-      <c r="BN3"/>
-      <c r="BO3"/>
-      <c r="BP3"/>
+        <v>115</v>
+      </c>
+    </row>
+    <row r="3" spans="78:78">
       <c r="BZ3" s="6"/>
     </row>
-    <row r="4" spans="7:78">
-      <c r="G4" s="5"/>
-      <c r="H4"/>
-      <c r="I4"/>
-      <c r="J4"/>
-      <c r="K4"/>
-      <c r="L4"/>
-      <c r="M4"/>
-      <c r="N4"/>
-      <c r="O4"/>
-      <c r="P4"/>
-      <c r="Q4"/>
-      <c r="R4"/>
-      <c r="S4"/>
-      <c r="T4"/>
-      <c r="U4"/>
-      <c r="V4" s="5"/>
-      <c r="W4"/>
-      <c r="X4"/>
-      <c r="Y4"/>
-      <c r="Z4"/>
-      <c r="AA4"/>
-      <c r="AB4"/>
-      <c r="AC4"/>
-      <c r="AD4"/>
-      <c r="AE4"/>
-      <c r="AF4"/>
-      <c r="AG4"/>
-      <c r="AH4"/>
-      <c r="AI4"/>
-      <c r="AJ4"/>
-      <c r="AK4"/>
-      <c r="AL4"/>
-      <c r="AM4"/>
-      <c r="AN4"/>
-      <c r="AO4"/>
-      <c r="AP4"/>
-      <c r="AQ4"/>
-      <c r="AR4"/>
-      <c r="AS4"/>
-      <c r="AT4"/>
-      <c r="AU4"/>
-      <c r="AV4"/>
-      <c r="AW4"/>
-      <c r="AX4"/>
-      <c r="AY4"/>
-      <c r="AZ4"/>
-      <c r="BA4"/>
-      <c r="BB4"/>
-      <c r="BC4"/>
-      <c r="BD4"/>
-      <c r="BE4"/>
-      <c r="BF4"/>
-      <c r="BG4"/>
-      <c r="BH4"/>
-      <c r="BI4"/>
-      <c r="BJ4"/>
-      <c r="BK4"/>
-      <c r="BL4"/>
-      <c r="BM4"/>
-      <c r="BN4"/>
-      <c r="BO4"/>
-      <c r="BP4"/>
+    <row r="4" spans="78:78">
       <c r="BZ4" s="6"/>
     </row>
-    <row r="5" spans="7:78">
-      <c r="G5" s="5"/>
-      <c r="H5"/>
-      <c r="I5"/>
-      <c r="J5"/>
-      <c r="K5"/>
-      <c r="L5"/>
-      <c r="M5"/>
-      <c r="N5"/>
-      <c r="O5"/>
-      <c r="P5"/>
-      <c r="Q5"/>
-      <c r="R5"/>
-      <c r="S5"/>
-      <c r="T5"/>
-      <c r="U5"/>
-      <c r="V5" s="5"/>
-      <c r="W5"/>
-      <c r="X5"/>
-      <c r="Y5"/>
-      <c r="Z5"/>
-      <c r="AA5"/>
-      <c r="AB5"/>
-      <c r="AC5"/>
-      <c r="AD5"/>
-      <c r="AE5"/>
-      <c r="AF5"/>
-      <c r="AG5"/>
-      <c r="AH5"/>
-      <c r="AI5"/>
-      <c r="AJ5"/>
-      <c r="AK5"/>
-      <c r="AL5"/>
-      <c r="AM5"/>
-      <c r="AN5"/>
-      <c r="AO5"/>
-      <c r="AP5"/>
-      <c r="AQ5"/>
-      <c r="AR5"/>
-      <c r="AS5"/>
-      <c r="AT5"/>
-      <c r="AU5"/>
-      <c r="AV5"/>
-      <c r="AW5"/>
-      <c r="AX5"/>
-      <c r="AY5"/>
-      <c r="AZ5"/>
-      <c r="BA5"/>
-      <c r="BB5"/>
-      <c r="BC5"/>
-      <c r="BD5"/>
-      <c r="BE5"/>
-      <c r="BF5"/>
-      <c r="BG5"/>
-      <c r="BH5"/>
-      <c r="BI5"/>
-      <c r="BJ5"/>
-      <c r="BK5"/>
-      <c r="BL5"/>
-      <c r="BM5"/>
-      <c r="BN5"/>
-      <c r="BO5"/>
-      <c r="BP5"/>
+    <row r="5" spans="78:78">
       <c r="BZ5" s="6"/>
     </row>
-    <row r="6" spans="7:78">
-      <c r="G6" s="5"/>
-      <c r="H6"/>
-      <c r="I6"/>
-      <c r="J6"/>
-      <c r="K6"/>
-      <c r="L6"/>
-      <c r="M6"/>
-      <c r="N6"/>
-      <c r="O6"/>
-      <c r="P6"/>
-      <c r="Q6"/>
-      <c r="R6"/>
-      <c r="S6"/>
-      <c r="T6"/>
-      <c r="U6"/>
-      <c r="V6" s="5"/>
-      <c r="W6"/>
-      <c r="X6"/>
-      <c r="Y6"/>
-      <c r="Z6"/>
-      <c r="AA6"/>
-      <c r="AB6"/>
-      <c r="AC6"/>
-      <c r="AD6"/>
-      <c r="AE6"/>
-      <c r="AF6"/>
-      <c r="AG6"/>
-      <c r="AH6"/>
-      <c r="AI6"/>
-      <c r="AJ6"/>
-      <c r="AK6"/>
-      <c r="AL6"/>
-      <c r="AM6"/>
-      <c r="AN6"/>
-      <c r="AO6"/>
-      <c r="AP6"/>
-      <c r="AQ6"/>
-      <c r="AR6"/>
-      <c r="AS6"/>
-      <c r="AT6"/>
-      <c r="AU6"/>
-      <c r="AV6"/>
-      <c r="AW6"/>
-      <c r="AX6"/>
-      <c r="AY6"/>
-      <c r="AZ6"/>
-      <c r="BA6"/>
-      <c r="BB6"/>
-      <c r="BC6"/>
-      <c r="BD6"/>
-      <c r="BE6"/>
-      <c r="BF6"/>
-      <c r="BG6"/>
-      <c r="BH6"/>
-      <c r="BI6"/>
-      <c r="BJ6"/>
-      <c r="BK6"/>
-      <c r="BL6"/>
-      <c r="BM6"/>
-      <c r="BN6"/>
-      <c r="BO6"/>
-      <c r="BP6"/>
+    <row r="6" spans="78:78">
       <c r="BZ6" s="6"/>
     </row>
-    <row r="7" spans="7:78">
-      <c r="G7" s="5"/>
-      <c r="H7"/>
-      <c r="I7"/>
-      <c r="J7"/>
-      <c r="K7"/>
-      <c r="L7"/>
-      <c r="M7"/>
-      <c r="N7"/>
-      <c r="O7"/>
-      <c r="P7"/>
-      <c r="Q7"/>
-      <c r="R7"/>
-      <c r="S7"/>
-      <c r="T7"/>
-      <c r="U7"/>
-      <c r="V7" s="5"/>
-      <c r="W7"/>
-      <c r="X7"/>
-      <c r="Y7"/>
-      <c r="Z7"/>
-      <c r="AA7"/>
-      <c r="AB7"/>
-      <c r="AC7"/>
-      <c r="AD7"/>
-      <c r="AE7"/>
-      <c r="AF7"/>
-      <c r="AG7"/>
-      <c r="AH7"/>
-      <c r="AI7"/>
-      <c r="AJ7"/>
-      <c r="AK7"/>
-      <c r="AL7"/>
-      <c r="AM7"/>
-      <c r="AN7"/>
-      <c r="AO7"/>
-      <c r="AP7"/>
-      <c r="AQ7"/>
-      <c r="AR7"/>
-      <c r="AS7"/>
-      <c r="AT7"/>
-      <c r="AU7"/>
-      <c r="AV7"/>
-      <c r="AW7"/>
-      <c r="AX7"/>
-      <c r="AY7"/>
-      <c r="AZ7"/>
-      <c r="BA7"/>
-      <c r="BB7"/>
-      <c r="BC7"/>
-      <c r="BD7"/>
-      <c r="BE7"/>
-      <c r="BF7"/>
-      <c r="BG7"/>
-      <c r="BH7"/>
-      <c r="BI7"/>
-      <c r="BJ7"/>
-      <c r="BK7"/>
-      <c r="BL7"/>
-      <c r="BM7"/>
-      <c r="BN7"/>
-      <c r="BO7"/>
-      <c r="BP7"/>
+    <row r="7" spans="78:78">
       <c r="BZ7" s="6"/>
     </row>
-    <row r="8" spans="7:78">
-      <c r="G8" s="5"/>
-      <c r="H8"/>
-      <c r="I8"/>
-      <c r="J8"/>
-      <c r="K8"/>
-      <c r="L8"/>
-      <c r="M8"/>
-      <c r="N8"/>
-      <c r="O8"/>
-      <c r="P8"/>
-      <c r="Q8"/>
-      <c r="R8"/>
-      <c r="S8"/>
-      <c r="T8"/>
-      <c r="U8"/>
-      <c r="V8" s="5"/>
-      <c r="W8"/>
-      <c r="X8"/>
-      <c r="Y8"/>
-      <c r="Z8"/>
-      <c r="AA8"/>
-      <c r="AB8"/>
-      <c r="AC8"/>
-      <c r="AD8"/>
-      <c r="AE8"/>
-      <c r="AF8"/>
-      <c r="AG8"/>
-      <c r="AH8"/>
-      <c r="AI8"/>
-      <c r="AJ8"/>
-      <c r="AK8"/>
-      <c r="AL8"/>
-      <c r="AM8"/>
-      <c r="AN8"/>
-      <c r="AO8"/>
-      <c r="AP8"/>
-      <c r="AQ8"/>
-      <c r="AR8"/>
-      <c r="AS8"/>
-      <c r="AT8"/>
-      <c r="AU8"/>
-      <c r="AV8"/>
-      <c r="AW8"/>
-      <c r="AX8"/>
-      <c r="AY8"/>
-      <c r="AZ8"/>
-      <c r="BA8"/>
-      <c r="BB8"/>
-      <c r="BC8"/>
-      <c r="BD8"/>
-      <c r="BE8"/>
-      <c r="BF8"/>
-      <c r="BG8"/>
-      <c r="BH8"/>
-      <c r="BI8"/>
-      <c r="BJ8"/>
-      <c r="BK8"/>
-      <c r="BL8"/>
-      <c r="BM8"/>
-      <c r="BN8"/>
-      <c r="BO8"/>
-      <c r="BP8"/>
+    <row r="8" spans="78:78">
       <c r="BZ8" s="6"/>
     </row>
-    <row r="9" spans="7:78">
-      <c r="G9" s="5"/>
-      <c r="H9"/>
-      <c r="I9"/>
-      <c r="J9"/>
-      <c r="K9"/>
-      <c r="L9"/>
-      <c r="M9"/>
-      <c r="N9"/>
-      <c r="O9"/>
-      <c r="P9"/>
-      <c r="Q9"/>
-      <c r="R9"/>
-      <c r="S9"/>
-      <c r="T9"/>
-      <c r="U9"/>
-      <c r="V9" s="5"/>
-      <c r="W9"/>
-      <c r="X9"/>
-      <c r="Y9"/>
-      <c r="Z9"/>
-      <c r="AA9"/>
-      <c r="AB9"/>
-      <c r="AC9"/>
-      <c r="AD9"/>
-      <c r="AE9"/>
-      <c r="AF9"/>
-      <c r="AG9"/>
-      <c r="AH9"/>
-      <c r="AI9"/>
-      <c r="AJ9"/>
-      <c r="AK9"/>
-      <c r="AL9"/>
-      <c r="AM9"/>
-      <c r="AN9"/>
-      <c r="AO9"/>
-      <c r="AP9"/>
-      <c r="AQ9"/>
-      <c r="AR9"/>
-      <c r="AS9"/>
-      <c r="AT9"/>
-      <c r="AU9"/>
-      <c r="AV9"/>
-      <c r="AW9"/>
-      <c r="AX9"/>
-      <c r="AY9"/>
-      <c r="AZ9"/>
-      <c r="BA9"/>
-      <c r="BB9"/>
-      <c r="BC9"/>
-      <c r="BD9"/>
-      <c r="BE9"/>
-      <c r="BF9"/>
-      <c r="BG9"/>
-      <c r="BH9"/>
-      <c r="BI9"/>
-      <c r="BJ9"/>
-      <c r="BK9"/>
-      <c r="BL9"/>
-      <c r="BM9"/>
-      <c r="BN9"/>
-      <c r="BO9"/>
-      <c r="BP9"/>
+    <row r="9" spans="78:78">
       <c r="BZ9" s="6"/>
     </row>
-    <row r="10" spans="7:78">
-      <c r="G10" s="5"/>
-      <c r="H10"/>
-      <c r="I10"/>
-      <c r="J10"/>
-      <c r="K10"/>
-      <c r="L10"/>
-      <c r="M10"/>
-      <c r="N10"/>
-      <c r="O10"/>
-      <c r="P10"/>
-      <c r="Q10"/>
-      <c r="R10"/>
-      <c r="S10"/>
-      <c r="T10"/>
-      <c r="U10"/>
-      <c r="V10" s="5"/>
-      <c r="W10"/>
-      <c r="X10"/>
-      <c r="Y10"/>
-      <c r="Z10"/>
-      <c r="AA10"/>
-      <c r="AB10"/>
-      <c r="AC10"/>
-      <c r="AD10"/>
-      <c r="AE10"/>
-      <c r="AF10"/>
-      <c r="AG10"/>
-      <c r="AH10"/>
-      <c r="AI10"/>
-      <c r="AJ10"/>
-      <c r="AK10"/>
-      <c r="AL10"/>
-      <c r="AM10"/>
-      <c r="AN10"/>
-      <c r="AO10"/>
-      <c r="AP10"/>
-      <c r="AQ10"/>
-      <c r="AR10"/>
-      <c r="AS10"/>
-      <c r="AT10"/>
-      <c r="AU10"/>
-      <c r="AV10"/>
-      <c r="AW10"/>
-      <c r="AX10"/>
-      <c r="AY10"/>
-      <c r="AZ10"/>
-      <c r="BA10"/>
-      <c r="BB10"/>
-      <c r="BC10"/>
-      <c r="BD10"/>
-      <c r="BE10"/>
-      <c r="BF10"/>
-      <c r="BG10"/>
-      <c r="BH10"/>
-      <c r="BI10"/>
-      <c r="BJ10"/>
-      <c r="BK10"/>
-      <c r="BL10"/>
-      <c r="BM10"/>
-      <c r="BN10"/>
-      <c r="BO10"/>
-      <c r="BP10"/>
+    <row r="10" spans="78:78">
       <c r="BZ10" s="6"/>
     </row>
-    <row r="11" spans="7:78">
-      <c r="G11" s="5"/>
-      <c r="H11"/>
-      <c r="I11"/>
-      <c r="J11"/>
-      <c r="K11"/>
-      <c r="L11"/>
-      <c r="M11"/>
-      <c r="N11"/>
-      <c r="O11"/>
-      <c r="P11"/>
-      <c r="Q11"/>
-      <c r="R11"/>
-      <c r="S11"/>
-      <c r="T11"/>
-      <c r="U11"/>
-      <c r="V11" s="5"/>
-      <c r="W11"/>
-      <c r="X11"/>
-      <c r="Y11"/>
-      <c r="Z11"/>
-      <c r="AA11"/>
-      <c r="AB11"/>
-      <c r="AC11"/>
-      <c r="AD11"/>
-      <c r="AE11"/>
-      <c r="AF11"/>
-      <c r="AG11"/>
-      <c r="AH11"/>
-      <c r="AI11"/>
-      <c r="AJ11"/>
-      <c r="AK11"/>
-      <c r="AL11"/>
-      <c r="AM11"/>
-      <c r="AN11"/>
-      <c r="AO11"/>
-      <c r="AP11"/>
-      <c r="AQ11"/>
-      <c r="AR11"/>
-      <c r="AS11"/>
-      <c r="AT11"/>
-      <c r="AU11"/>
-      <c r="AV11"/>
-      <c r="AW11"/>
-      <c r="AX11"/>
-      <c r="AY11"/>
-      <c r="AZ11"/>
-      <c r="BA11"/>
-      <c r="BB11"/>
-      <c r="BC11"/>
-      <c r="BD11"/>
-      <c r="BE11"/>
-      <c r="BF11"/>
-      <c r="BG11"/>
-      <c r="BH11"/>
-      <c r="BI11"/>
-      <c r="BJ11"/>
-      <c r="BK11"/>
-      <c r="BL11"/>
-      <c r="BM11"/>
-      <c r="BN11"/>
-      <c r="BO11"/>
-      <c r="BP11"/>
+    <row r="11" spans="78:78">
       <c r="BZ11" s="6"/>
     </row>
   </sheetData>
   <dataValidations count="8">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="O2 AF2:AF11 AI2:AI11 AL2:AL11 AO2:AO11">
+      <formula1>list!$S$2:$S$4</formula1>
+    </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2:A11">
       <formula1>list!$B$2:$B$75</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L2:L11">
       <formula1>list!$O$2:$O$38</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="O2:O11">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="O3:O11">
       <formula1>list!$S$2:$S$3</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Q2:Q11">
-      <formula1>list!$AB$15:$AB$30</formula1>
+      <formula1>list!$AB$15:$AB$27</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Y2:Y11">
       <formula1>list!$Y$2:$Y$3</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AF2:AF11 AI2:AI11 AL2:AL11 AO2:AO11">
-      <formula1>list!$S$2:$S$4</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AU2:AU11">
       <formula1>list!$AC$2:$AC$9</formula1>
@@ -3137,8 +2595,8 @@
   <sheetPr/>
   <dimension ref="A1:CH75"/>
   <sheetViews>
-    <sheetView topLeftCell="I7" workbookViewId="0">
-      <selection activeCell="AC28" sqref="AC28"/>
+    <sheetView topLeftCell="K1" workbookViewId="0">
+      <selection activeCell="T8" sqref="T8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
@@ -3151,13 +2609,13 @@
   <sheetData>
     <row r="1" s="1" customFormat="1" spans="1:86">
       <c r="A1" s="2" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="D1" s="2"/>
       <c r="E1" s="2"/>
@@ -3171,31 +2629,31 @@
       <c r="M1" s="2"/>
       <c r="N1" s="2"/>
       <c r="O1" s="2" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="P1" s="2" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="Q1" s="2"/>
       <c r="R1" s="2"/>
       <c r="S1" s="2" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="T1" s="2" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="U1" s="2"/>
       <c r="V1" s="2"/>
       <c r="W1" s="2"/>
       <c r="X1" s="2"/>
       <c r="Y1" s="2" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="Z1" s="2"/>
       <c r="AA1" s="2"/>
       <c r="AB1" s="2"/>
       <c r="AC1" s="2" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="AD1" s="2"/>
       <c r="AE1" s="2"/>
@@ -3220,10 +2678,10 @@
       <c r="AX1" s="2"/>
       <c r="AY1" s="2"/>
       <c r="AZ1" s="2" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="BA1" s="2" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="BB1" s="2"/>
       <c r="BC1" s="2"/>
@@ -3250,22 +2708,22 @@
       <c r="BX1" s="2"/>
       <c r="BY1" s="2"/>
       <c r="BZ1" s="2" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="CA1" s="2" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="CC1" s="1" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="CD1" s="1" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="CG1" s="1" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="CH1" s="1" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
     </row>
     <row r="2" s="1" customFormat="1" spans="1:86">
@@ -3273,49 +2731,49 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="C2" s="1">
         <v>77</v>
       </c>
       <c r="O2" s="1" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="P2" s="1">
         <v>31</v>
       </c>
       <c r="S2" s="1" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="T2" s="1">
         <v>1</v>
       </c>
       <c r="Y2" s="1" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="AC2" s="1" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="AZ2" s="1" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="BA2" s="1">
         <v>0</v>
       </c>
       <c r="BZ2" s="1" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="CA2" s="1">
         <v>0</v>
       </c>
       <c r="CC2" s="1" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="CD2" s="1">
         <v>1</v>
       </c>
       <c r="CG2" s="1" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="CH2" s="1">
         <v>1</v>
@@ -3326,49 +2784,49 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="C3" s="1">
         <v>76</v>
       </c>
       <c r="O3" s="1" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="P3" s="1">
         <v>1</v>
       </c>
       <c r="S3" s="1" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="T3" s="1">
         <v>2</v>
       </c>
       <c r="Y3" s="1" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AC3" s="1" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="AZ3" s="1" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="BA3" s="1">
         <v>1</v>
       </c>
       <c r="BZ3" s="1" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="CA3" s="1">
         <v>1</v>
       </c>
       <c r="CC3" s="1" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="CD3" s="1">
         <v>0</v>
       </c>
       <c r="CG3" s="1" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="CH3" s="1">
         <v>2</v>
@@ -3379,22 +2837,25 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="C4" s="1">
         <v>75</v>
       </c>
       <c r="O4" s="1" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="P4" s="1">
         <v>3</v>
       </c>
       <c r="S4" s="1" t="s">
-        <v>101</v>
+        <v>148</v>
+      </c>
+      <c r="T4" s="1">
+        <v>3</v>
       </c>
       <c r="AC4" s="1" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
     </row>
     <row r="5" s="1" customFormat="1" spans="1:29">
@@ -3402,19 +2863,19 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="C5" s="1">
         <v>74</v>
       </c>
       <c r="O5" s="1" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="P5" s="1">
         <v>2</v>
       </c>
       <c r="AC5" s="1" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
     </row>
     <row r="6" s="1" customFormat="1" spans="1:29">
@@ -3422,19 +2883,19 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="C6" s="1">
         <v>73</v>
       </c>
       <c r="O6" s="1" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="P6" s="1">
         <v>35</v>
       </c>
       <c r="AC6" s="1" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
     </row>
     <row r="7" s="1" customFormat="1" spans="1:29">
@@ -3442,19 +2903,19 @@
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="C7" s="1">
         <v>72</v>
       </c>
       <c r="O7" s="1" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="P7" s="1">
         <v>5</v>
       </c>
       <c r="AC7" s="1" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
     </row>
     <row r="8" s="1" customFormat="1" spans="1:29">
@@ -3462,19 +2923,19 @@
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="C8" s="1">
         <v>71</v>
       </c>
       <c r="O8" s="1" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="P8" s="1">
         <v>30</v>
       </c>
       <c r="AC8" s="1" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
     </row>
     <row r="9" s="1" customFormat="1" spans="1:29">
@@ -3482,19 +2943,19 @@
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="C9" s="1">
         <v>70</v>
       </c>
       <c r="O9" s="1" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="P9" s="1">
         <v>34</v>
       </c>
       <c r="AC9" s="1" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
     </row>
     <row r="10" s="1" customFormat="1" spans="1:16">
@@ -3502,13 +2963,13 @@
         <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="C10" s="1">
         <v>69</v>
       </c>
       <c r="O10" s="1" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="P10" s="1">
         <v>29</v>
@@ -3519,13 +2980,13 @@
         <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="C11" s="1">
         <v>68</v>
       </c>
       <c r="O11" s="1" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="P11" s="1">
         <v>28</v>
@@ -3536,13 +2997,13 @@
         <v>11</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="C12" s="1">
         <v>67</v>
       </c>
       <c r="O12" s="1" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="P12" s="1">
         <v>37</v>
@@ -3553,13 +3014,13 @@
         <v>12</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="C13" s="1">
         <v>66</v>
       </c>
       <c r="O13" s="1" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="P13" s="1">
         <v>25</v>
@@ -3570,13 +3031,13 @@
         <v>13</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="C14" s="1">
         <v>65</v>
       </c>
       <c r="O14" s="1" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="P14" s="1">
         <v>4</v>
@@ -3587,22 +3048,22 @@
         <v>14</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="C15" s="1">
         <v>64</v>
       </c>
       <c r="O15" s="1" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="P15" s="1">
         <v>6</v>
       </c>
       <c r="Z15" s="1" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="AB15" s="1" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
     </row>
     <row r="16" s="1" customFormat="1" spans="1:28">
@@ -3610,22 +3071,22 @@
         <v>15</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="C16" s="1">
         <v>63</v>
       </c>
       <c r="O16" s="1" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="P16" s="1">
         <v>7</v>
       </c>
       <c r="Z16" s="1" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="AB16" s="1" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
     </row>
     <row r="17" s="1" customFormat="1" spans="1:28">
@@ -3633,22 +3094,22 @@
         <v>16</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="C17" s="1">
         <v>62</v>
       </c>
       <c r="O17" s="1" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="P17" s="1">
         <v>8</v>
       </c>
       <c r="Z17" s="1" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="AB17" s="1" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
     </row>
     <row r="18" s="1" customFormat="1" spans="1:28">
@@ -3656,19 +3117,19 @@
         <v>17</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="C18" s="1">
         <v>61</v>
       </c>
       <c r="O18" s="1" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="P18" s="1">
         <v>33</v>
       </c>
       <c r="AB18" s="1" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
     </row>
     <row r="19" s="1" customFormat="1" spans="1:28">
@@ -3676,19 +3137,19 @@
         <v>18</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="C19" s="1">
         <v>60</v>
       </c>
       <c r="O19" s="1" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="P19" s="1">
         <v>9</v>
       </c>
       <c r="AB19" s="1" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
     </row>
     <row r="20" s="1" customFormat="1" spans="1:28">
@@ -3696,19 +3157,19 @@
         <v>19</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="C20" s="1">
         <v>59</v>
       </c>
       <c r="O20" s="1" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="P20" s="1">
         <v>10</v>
       </c>
       <c r="AB20" s="1" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
     </row>
     <row r="21" s="1" customFormat="1" spans="1:28">
@@ -3716,19 +3177,19 @@
         <v>20</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="C21" s="1">
         <v>58</v>
       </c>
       <c r="O21" s="1" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="P21" s="1">
         <v>27</v>
       </c>
       <c r="AB21" s="1" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
     </row>
     <row r="22" s="1" customFormat="1" spans="1:28">
@@ -3736,19 +3197,19 @@
         <v>21</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="C22" s="1">
         <v>57</v>
       </c>
       <c r="O22" s="1" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="P22" s="1">
         <v>11</v>
       </c>
       <c r="AB22" s="1" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
     </row>
     <row r="23" s="1" customFormat="1" spans="1:28">
@@ -3756,19 +3217,19 @@
         <v>22</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="C23" s="1">
         <v>56</v>
       </c>
       <c r="O23" s="1" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="P23" s="1">
         <v>12</v>
       </c>
       <c r="AB23" s="1" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
     </row>
     <row r="24" s="1" customFormat="1" spans="1:28">
@@ -3776,19 +3237,19 @@
         <v>23</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="C24" s="1">
         <v>55</v>
       </c>
       <c r="O24" s="1" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="P24" s="1">
         <v>13</v>
       </c>
       <c r="AB24" s="1" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
     </row>
     <row r="25" s="1" customFormat="1" spans="1:28">
@@ -3796,19 +3257,19 @@
         <v>24</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="C25" s="1">
         <v>54</v>
       </c>
       <c r="O25" s="1" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="P25" s="1">
         <v>14</v>
       </c>
       <c r="AB25" s="1" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
     </row>
     <row r="26" s="1" customFormat="1" spans="1:28">
@@ -3816,19 +3277,19 @@
         <v>25</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="C26" s="1">
         <v>53</v>
       </c>
       <c r="O26" s="1" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="P26" s="1">
         <v>15</v>
       </c>
       <c r="AB26" s="1" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
     </row>
     <row r="27" s="1" customFormat="1" spans="1:28">
@@ -3836,62 +3297,56 @@
         <v>26</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="C27" s="1">
         <v>52</v>
       </c>
       <c r="O27" s="1" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="P27" s="1">
         <v>16</v>
       </c>
       <c r="AB27" s="1" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="28" s="1" customFormat="1" spans="1:28">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="28" s="1" customFormat="1" spans="1:16">
       <c r="A28" s="1">
         <v>27</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="C28" s="1">
         <v>51</v>
       </c>
       <c r="O28" s="1" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="P28" s="1">
         <v>17</v>
       </c>
-      <c r="AB28" s="1" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="29" s="1" customFormat="1" spans="1:28">
+    </row>
+    <row r="29" s="1" customFormat="1" spans="1:16">
       <c r="A29" s="1">
         <v>28</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="C29" s="1">
         <v>50</v>
       </c>
       <c r="O29" s="1" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="P29" s="1">
         <v>26</v>
       </c>
-      <c r="AB29" s="1" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="30" s="1" customFormat="1" spans="1:28">
+    </row>
+    <row r="30" s="1" customFormat="1" spans="1:16">
       <c r="A30" s="1">
         <v>29</v>
       </c>
@@ -3906,9 +3361,6 @@
       </c>
       <c r="P30" s="1">
         <v>18</v>
-      </c>
-      <c r="AB30" s="1" t="s">
-        <v>219</v>
       </c>
     </row>
     <row r="31" s="1" customFormat="1" spans="1:16">
@@ -3916,13 +3368,13 @@
         <v>30</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C31" s="1">
         <v>48</v>
       </c>
       <c r="O31" s="1" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="P31" s="1">
         <v>19</v>
@@ -3933,13 +3385,13 @@
         <v>31</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C32" s="1">
         <v>47</v>
       </c>
       <c r="O32" s="1" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="P32" s="1">
         <v>20</v>
@@ -3950,13 +3402,13 @@
         <v>32</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C33" s="1">
         <v>46</v>
       </c>
       <c r="O33" s="1" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="P33" s="1">
         <v>21</v>
@@ -3967,13 +3419,13 @@
         <v>33</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C34" s="1">
         <v>45</v>
       </c>
       <c r="O34" s="1" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="P34" s="1">
         <v>36</v>
@@ -3984,13 +3436,13 @@
         <v>34</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="C35" s="1">
         <v>43</v>
       </c>
       <c r="O35" s="1" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="P35" s="1">
         <v>22</v>
@@ -4001,13 +3453,13 @@
         <v>35</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C36" s="1">
         <v>42</v>
       </c>
       <c r="O36" s="1" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="P36" s="1">
         <v>23</v>
@@ -4018,13 +3470,13 @@
         <v>36</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C37" s="1">
         <v>40</v>
       </c>
       <c r="O37" s="1" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="P37" s="1">
         <v>32</v>
@@ -4035,13 +3487,13 @@
         <v>37</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C38" s="1">
         <v>39</v>
       </c>
       <c r="O38" s="1" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="P38" s="1">
         <v>24</v>
@@ -4052,7 +3504,7 @@
         <v>38</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C39" s="1">
         <v>38</v>
@@ -4063,7 +3515,7 @@
         <v>39</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C40" s="1">
         <v>37</v>
@@ -4074,7 +3526,7 @@
         <v>40</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="C41" s="1">
         <v>36</v>
@@ -4085,7 +3537,7 @@
         <v>41</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="C42" s="1">
         <v>35</v>
@@ -4096,7 +3548,7 @@
         <v>42</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C43" s="1">
         <v>34</v>
@@ -4107,7 +3559,7 @@
         <v>43</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C44" s="1">
         <v>33</v>
@@ -4118,7 +3570,7 @@
         <v>44</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C45" s="1">
         <v>32</v>
@@ -4129,7 +3581,7 @@
         <v>45</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="C46" s="1">
         <v>31</v>
@@ -4140,7 +3592,7 @@
         <v>46</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="C47" s="1">
         <v>30</v>
@@ -4151,7 +3603,7 @@
         <v>47</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="C48" s="1">
         <v>29</v>
@@ -4162,7 +3614,7 @@
         <v>48</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="C49" s="1">
         <v>28</v>
@@ -4173,7 +3625,7 @@
         <v>49</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C50" s="1">
         <v>27</v>
@@ -4184,7 +3636,7 @@
         <v>50</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C51" s="1">
         <v>26</v>
@@ -4195,7 +3647,7 @@
         <v>51</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="C52" s="1">
         <v>25</v>
@@ -4206,7 +3658,7 @@
         <v>52</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C53" s="1">
         <v>24</v>
@@ -4217,7 +3669,7 @@
         <v>53</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="C54" s="1">
         <v>23</v>
@@ -4228,7 +3680,7 @@
         <v>54</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="C55" s="1">
         <v>22</v>
@@ -4239,7 +3691,7 @@
         <v>55</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="C56" s="1">
         <v>20</v>
@@ -4250,7 +3702,7 @@
         <v>56</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="C57" s="1">
         <v>19</v>
@@ -4261,7 +3713,7 @@
         <v>57</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C58" s="1">
         <v>18</v>
@@ -4272,7 +3724,7 @@
         <v>58</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="C59" s="1">
         <v>17</v>
@@ -4283,7 +3735,7 @@
         <v>59</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="C60" s="1">
         <v>16</v>
@@ -4294,7 +3746,7 @@
         <v>60</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C61" s="1">
         <v>15</v>
@@ -4305,7 +3757,7 @@
         <v>61</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="C62" s="1">
         <v>14</v>
@@ -4316,7 +3768,7 @@
         <v>62</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="C63" s="1">
         <v>13</v>
@@ -4327,7 +3779,7 @@
         <v>63</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="C64" s="1">
         <v>12</v>
@@ -4338,7 +3790,7 @@
         <v>64</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="C65" s="1">
         <v>11</v>
@@ -4349,7 +3801,7 @@
         <v>65</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C66" s="1">
         <v>10</v>
@@ -4360,7 +3812,7 @@
         <v>66</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C67" s="1">
         <v>9</v>
@@ -4371,7 +3823,7 @@
         <v>67</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="C68" s="1">
         <v>8</v>
@@ -4382,7 +3834,7 @@
         <v>68</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C69" s="1">
         <v>7</v>
@@ -4393,7 +3845,7 @@
         <v>69</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C70" s="1">
         <v>6</v>
@@ -4404,7 +3856,7 @@
         <v>70</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="C71" s="1">
         <v>5</v>
@@ -4426,7 +3878,7 @@
         <v>72</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="C73" s="1">
         <v>3</v>
@@ -4437,7 +3889,7 @@
         <v>73</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="C74" s="1">
         <v>2</v>
@@ -4448,7 +3900,7 @@
         <v>74</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="C75" s="1">
         <v>1</v>

--- a/public/admin/approvedcandidates_formate.xlsx
+++ b/public/admin/approvedcandidates_formate.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="299" uniqueCount="271">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="240" uniqueCount="213">
   <si>
     <t>Client_Name</t>
   </si>
@@ -264,7 +264,7 @@
     <t>Password</t>
   </si>
   <si>
-    <t>Hands On Trades Private Limited</t>
+    <t>CLIENT NAME</t>
   </si>
   <si>
     <t>FFIHTPL0203</t>
@@ -354,6 +354,9 @@
     <t>A-</t>
   </si>
   <si>
+    <t>abc@gmail</t>
+  </si>
+  <si>
     <t>KR Market</t>
   </si>
   <si>
@@ -381,12 +384,6 @@
     <t>SL No</t>
   </si>
   <si>
-    <t>CLIENT NAME</t>
-  </si>
-  <si>
-    <t>CLIENT ID</t>
-  </si>
-  <si>
     <t>STATES</t>
   </si>
   <si>
@@ -429,147 +426,196 @@
     <t>DDCS APPROVAL ID</t>
   </si>
   <si>
+    <t>Blink Commerce Private Limited</t>
+  </si>
+  <si>
+    <t>ANDAMAN &amp; NICOBAR</t>
+  </si>
+  <si>
+    <t>Un-Married</t>
+  </si>
+  <si>
+    <t>O+</t>
+  </si>
+  <si>
+    <t>Active</t>
+  </si>
+  <si>
+    <t>Complete</t>
+  </si>
+  <si>
+    <t>Approve</t>
+  </si>
+  <si>
+    <t>BLUE DART EXPRESS LTD</t>
+  </si>
+  <si>
+    <t>ANDHRA PRADESH</t>
+  </si>
+  <si>
+    <t>Female</t>
+  </si>
+  <si>
+    <t>O-</t>
+  </si>
+  <si>
+    <t>Inactive</t>
+  </si>
+  <si>
+    <t>Deactive</t>
+  </si>
+  <si>
+    <t>Reject</t>
+  </si>
+  <si>
+    <t>Brainbees Solutions Private Limited</t>
+  </si>
+  <si>
+    <t>Others</t>
+  </si>
+  <si>
+    <t>A+</t>
+  </si>
+  <si>
+    <t>BusybeesLogistics Solutions Private Limited</t>
+  </si>
+  <si>
+    <t>ASSAM</t>
+  </si>
+  <si>
+    <t>DELHIVERY PRIVATE LIMITED</t>
+  </si>
+  <si>
+    <t>B+</t>
+  </si>
+  <si>
+    <r>
+      <t>Digital Age Retail Private Limited</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+  </si>
+  <si>
+    <t>BIHAR</t>
+  </si>
+  <si>
+    <t>B-</t>
+  </si>
+  <si>
+    <t>Firmroots Private Limited</t>
+  </si>
+  <si>
+    <t>CHANDIGARH</t>
+  </si>
+  <si>
+    <t>AB+</t>
+  </si>
+  <si>
+    <t>Foxconn Hon Hai Technology India Mega Development Private Limited</t>
+  </si>
+  <si>
+    <t>CHATTISGARH</t>
+  </si>
+  <si>
+    <t>AB-</t>
+  </si>
+  <si>
+    <t>IFB Automotive Private Ltd</t>
+  </si>
+  <si>
+    <t>DADRA &amp; NAGAR</t>
+  </si>
+  <si>
+    <r>
+      <t>Mehler Engineered Products</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t>India</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t>Pvt. Ltd.</t>
+    </r>
+  </si>
+  <si>
+    <t>DAMAN &amp; DIU</t>
+  </si>
+  <si>
+    <t>Patwari Pharma Private Limited</t>
+  </si>
+  <si>
+    <t>DELHI</t>
+  </si>
+  <si>
+    <t>PROCONNECT SUPPLY CHAIN SOLUTIONS PVT LTD</t>
+  </si>
+  <si>
+    <t>GOA</t>
+  </si>
+  <si>
+    <t>Rapidue Technologies Pvt Ltd</t>
+  </si>
+  <si>
+    <t>GUJRAT</t>
+  </si>
+  <si>
+    <t>TTP Technologies Private Limited</t>
+  </si>
+  <si>
+    <t>HARYANA</t>
+  </si>
+  <si>
     <t>Urbanlogix Global India Private Limited</t>
   </si>
   <si>
-    <t>ANDAMAN &amp; NICOBAR</t>
-  </si>
-  <si>
-    <t>Un-Married</t>
-  </si>
-  <si>
-    <t>O+</t>
-  </si>
-  <si>
-    <t>Active</t>
-  </si>
-  <si>
-    <t>Complete</t>
-  </si>
-  <si>
-    <t>Approve</t>
-  </si>
-  <si>
-    <t>Foxconn Hon Hai Technology India Mega Development Private Limited</t>
-  </si>
-  <si>
-    <t>ANDHRA PRADESH</t>
-  </si>
-  <si>
-    <t>Female</t>
-  </si>
-  <si>
-    <t>O-</t>
-  </si>
-  <si>
-    <t>Inactive</t>
-  </si>
-  <si>
-    <t>Deactive</t>
-  </si>
-  <si>
-    <t>Reject</t>
-  </si>
-  <si>
-    <t>TTP Technologies Private Limited</t>
-  </si>
-  <si>
-    <t>Others</t>
-  </si>
-  <si>
-    <t>A+</t>
+    <t>HIMACHAL PRADESH</t>
+  </si>
+  <si>
+    <t>Approved</t>
+  </si>
+  <si>
+    <t>6th</t>
   </si>
   <si>
     <t>Zomato Hyperpure Private Limited</t>
   </si>
   <si>
-    <t>ASSAM</t>
-  </si>
-  <si>
-    <t>Bigfoot Retail Solutions Private Limited</t>
-  </si>
-  <si>
-    <t>B+</t>
-  </si>
-  <si>
-    <t>PCI Pest Control Private Limited</t>
-  </si>
-  <si>
-    <t>BIHAR</t>
-  </si>
-  <si>
-    <t>B-</t>
-  </si>
-  <si>
-    <t>IFB Automotive Private Ltd</t>
-  </si>
-  <si>
-    <t>CHANDIGARH</t>
-  </si>
-  <si>
-    <t>AB+</t>
-  </si>
-  <si>
-    <t>Blink Commerce Private Limited</t>
-  </si>
-  <si>
-    <t>CHATTISGARH</t>
-  </si>
-  <si>
-    <t>AB-</t>
-  </si>
-  <si>
-    <t>KiranaKart Technologies Private Limited</t>
-  </si>
-  <si>
-    <t>DADRA &amp; NAGAR</t>
-  </si>
-  <si>
-    <t>SSAGC Marketing Services Private Limited</t>
-  </si>
-  <si>
-    <t>DAMAN &amp; DIU</t>
-  </si>
-  <si>
-    <t>Shopclients Consultancy Services Pvt Ltd</t>
-  </si>
-  <si>
-    <t>DELHI</t>
-  </si>
-  <si>
-    <t>WayCool Foods and Products Pvt. Ltd.</t>
-  </si>
-  <si>
-    <t>GOA</t>
-  </si>
-  <si>
-    <t>Deliveryontime Logistics Private Ltd</t>
-  </si>
-  <si>
-    <t>GUJRAT</t>
-  </si>
-  <si>
-    <t>WWL Centre For Logistics Excellence Private Limited</t>
-  </si>
-  <si>
-    <t>HARYANA</t>
-  </si>
-  <si>
-    <t>Firmroots Private Limited</t>
-  </si>
-  <si>
-    <t>HIMACHAL PRADESH</t>
-  </si>
-  <si>
-    <t>Approved</t>
-  </si>
-  <si>
-    <t>6th</t>
-  </si>
-  <si>
-    <t>Patwari Pharma Private Limited</t>
-  </si>
-  <si>
     <t>JAMMU &amp; KASHMIR</t>
   </si>
   <si>
@@ -579,268 +625,97 @@
     <t>7th</t>
   </si>
   <si>
-    <t>Smart Express Private Limited</t>
-  </si>
-  <si>
     <t>JHARKHAND</t>
   </si>
   <si>
     <t>8th</t>
   </si>
   <si>
-    <t>Mehler Engineered Products India Pvt. Ltd.</t>
-  </si>
-  <si>
     <t>KARNATAKA</t>
   </si>
   <si>
     <t>9th</t>
   </si>
   <si>
-    <t>Mechanical Unified Private Limited</t>
-  </si>
-  <si>
     <t>KERALA</t>
   </si>
   <si>
     <t>10th</t>
   </si>
   <si>
-    <t>Gobuyeazzify India Private Limited</t>
-  </si>
-  <si>
     <t>LAKSHDWEEP</t>
   </si>
   <si>
     <t>PUC</t>
   </si>
   <si>
-    <t>Fashnear Technologies Private Limited</t>
-  </si>
-  <si>
     <t>MADHYA PRADESH</t>
   </si>
   <si>
     <t>Graduate</t>
   </si>
   <si>
-    <t>Rapidue Technologies Pvt Ltd</t>
-  </si>
-  <si>
     <t>MAHARASHTRA</t>
   </si>
   <si>
     <t>Under_Graduate</t>
   </si>
   <si>
-    <t>Loadshare Networks Pvt Ltd</t>
-  </si>
-  <si>
     <t>MANIPUR</t>
   </si>
   <si>
     <t>Post_Graduate</t>
   </si>
   <si>
-    <t>Threpsi Solutions Private Limited</t>
-  </si>
-  <si>
     <t>MEGHALAYA</t>
   </si>
   <si>
     <t>DIPLOMA</t>
   </si>
   <si>
-    <t>Supr Infotech Solutions Private Limited</t>
-  </si>
-  <si>
     <t>MIZORAM</t>
   </si>
   <si>
     <t>ENGINEERING</t>
   </si>
   <si>
-    <t>Farmtheory Private Limited</t>
-  </si>
-  <si>
     <t>NAGALAND</t>
   </si>
   <si>
     <t>PHD</t>
   </si>
   <si>
-    <t>Blue Dart Aviation  Ltd.</t>
-  </si>
-  <si>
     <t>ORISSA</t>
   </si>
   <si>
-    <t>NEWLOOP LOGISTICS PRIVATE LIMITED</t>
-  </si>
-  <si>
     <t>PONDICHERY</t>
   </si>
   <si>
-    <t>LYNKS LOGISTICS LIMITED</t>
-  </si>
-  <si>
     <t>PUNJAB</t>
   </si>
   <si>
-    <t>GRANARY WHOLESALE PRIVATE LIMITED</t>
-  </si>
-  <si>
     <t>RAJASTHAN</t>
   </si>
   <si>
-    <t>INDUSBUY TECHSERVE PVT LTD</t>
-  </si>
-  <si>
     <t>SIKKIM</t>
   </si>
   <si>
-    <t>BLUE DART EXPRESS LTD</t>
-  </si>
-  <si>
     <t>TAMIL NADU</t>
   </si>
   <si>
-    <t>HICARE SERVICES PVT LTD</t>
-  </si>
-  <si>
     <t>TELANGANA</t>
   </si>
   <si>
-    <t>QWY Technologies Pvt Ltd</t>
-  </si>
-  <si>
     <t>TRIPURA</t>
   </si>
   <si>
-    <t>Medlife Wellness Retail Pvt Ltd</t>
-  </si>
-  <si>
     <t>UTTAR PRADESH</t>
   </si>
   <si>
-    <t>Slingpe software private limited</t>
-  </si>
-  <si>
     <t>UTTARAKHAND</t>
   </si>
   <si>
-    <t>MAK STAFFING</t>
-  </si>
-  <si>
     <t>WEST BENGAL</t>
-  </si>
-  <si>
-    <t>63 Ideas Info Labs Private Limited</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pristine facility &amp; management service pvt ltd </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Randstand india pvt ltd </t>
-  </si>
-  <si>
-    <t>Himatsingka</t>
-  </si>
-  <si>
-    <t>Mahindra Logistics limited</t>
-  </si>
-  <si>
-    <t>Rupeek Fintech Pvt Ltd</t>
-  </si>
-  <si>
-    <t>Grantail Wholesale Pvt Ltd</t>
-  </si>
-  <si>
-    <t>Wickedride Adventure Services Pvt Ltd</t>
-  </si>
-  <si>
-    <t>DTDC express  Limited</t>
-  </si>
-  <si>
-    <t>DELHIVERY PRIVATE LIMITED</t>
-  </si>
-  <si>
-    <t>VOGO AUTOMOTIVE PRIVATE LIMITED</t>
-  </si>
-  <si>
-    <t>Ecom Express Pvt Ltd</t>
-  </si>
-  <si>
-    <t>Ansio Marketplace Pvt Ltd</t>
-  </si>
-  <si>
-    <t>RESILIENT INNOVATIONS PRIVATE LIMITED(Bharat Pe)</t>
-  </si>
-  <si>
-    <t>Asset Trackr Pvt. Ltd.,</t>
-  </si>
-  <si>
-    <t>BRILLIANT PRINTERS PVT LTD</t>
-  </si>
-  <si>
-    <t>ERELEGO DIGI MEDIA PVT LTD</t>
-  </si>
-  <si>
-    <t>JMS LOGISTICS &amp; EXPRESS PVT LTD</t>
-  </si>
-  <si>
-    <t>EQUITAS TECHNOLOGIES PVT LTD</t>
-  </si>
-  <si>
-    <t>KARVY DATA MANAGEMENT SERVICES LTD</t>
-  </si>
-  <si>
-    <t>RIGHT BRAIN TECHNOLOGY PVT LTD</t>
-  </si>
-  <si>
-    <t>CURE FOODS PVT LTD</t>
-  </si>
-  <si>
-    <t>INNOVATIVE RETAIL CONCEPTS PVT LTD</t>
-  </si>
-  <si>
-    <t>SUPER MARKET GROCERY SUPPLIES PVT LTD</t>
-  </si>
-  <si>
-    <t>PROCONNECT SUPPLY CHAIN SOLUTIONS PVT LTD</t>
-  </si>
-  <si>
-    <t>DUNZO DIGITAL PVT LTD</t>
-  </si>
-  <si>
-    <t>KEF INFRASTRUCTURE INDIA PVT LTD</t>
-  </si>
-  <si>
-    <t>BISLERI INTERNATIONAL PVT LTD</t>
-  </si>
-  <si>
-    <t>MSUPPLY ECOMMERCE INDIA PVT LTD</t>
-  </si>
-  <si>
-    <t>YUSEN LOGISTICS (INDIA) PVT LTD</t>
-  </si>
-  <si>
-    <t>Brainbees Solutions Private Limited</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Digital Age Retail Private Limited </t>
-  </si>
-  <si>
-    <t>BusybeesLogistics Solutions Private Limited</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GROFERS INDIA PVT LTD </t>
-  </si>
-  <si>
-    <t>Hiveloop Logistics Private  Limited</t>
-  </si>
-  <si>
-    <t>Hiveloop Technology Private Limited.</t>
   </si>
 </sst>
 </file>
@@ -854,7 +729,7 @@
     <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="178" formatCode="m/d/yyyy;@"/>
   </numFmts>
-  <fonts count="23">
+  <fonts count="24">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -879,6 +754,14 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -1348,152 +1231,161 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="178" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="6">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="6">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1">
@@ -2034,267 +1926,267 @@
   <sheetPr/>
   <dimension ref="A1:BZ11"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleSheetLayoutView="60" topLeftCell="AG1" workbookViewId="0">
-      <selection activeCell="AK1" sqref="AK1"/>
+    <sheetView tabSelected="1" zoomScaleSheetLayoutView="60" workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10" defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="6" width="34.2222222222222" customWidth="1"/>
-    <col min="7" max="9" width="34.2222222222222" style="4" customWidth="1"/>
+    <col min="7" max="9" width="34.2222222222222" style="5" customWidth="1"/>
     <col min="10" max="15" width="34.2222222222222" customWidth="1"/>
-    <col min="16" max="16" width="34.2222222222222" style="4" customWidth="1"/>
+    <col min="16" max="16" width="34.2222222222222" style="5" customWidth="1"/>
     <col min="17" max="18" width="34.2222222222222" customWidth="1"/>
-    <col min="19" max="19" width="34.2222222222222" style="4" customWidth="1"/>
+    <col min="19" max="19" width="34.2222222222222" style="5" customWidth="1"/>
     <col min="20" max="21" width="34.2222222222222" customWidth="1"/>
-    <col min="22" max="22" width="34.2222222222222" style="4" customWidth="1"/>
+    <col min="22" max="22" width="34.2222222222222" style="5" customWidth="1"/>
     <col min="23" max="26" width="34.2222222222222" customWidth="1"/>
-    <col min="27" max="27" width="34.2222222222222" style="4" customWidth="1"/>
+    <col min="27" max="27" width="34.2222222222222" style="5" customWidth="1"/>
     <col min="28" max="30" width="34.2222222222222" customWidth="1"/>
-    <col min="31" max="31" width="34.2222222222222" style="4" customWidth="1"/>
+    <col min="31" max="31" width="34.2222222222222" style="5" customWidth="1"/>
     <col min="32" max="33" width="34.2222222222222" customWidth="1"/>
-    <col min="34" max="34" width="34.2222222222222" style="4" customWidth="1"/>
+    <col min="34" max="34" width="34.2222222222222" style="5" customWidth="1"/>
     <col min="35" max="36" width="34.2222222222222" customWidth="1"/>
-    <col min="37" max="37" width="34.2222222222222" style="4" customWidth="1"/>
+    <col min="37" max="37" width="34.2222222222222" style="5" customWidth="1"/>
     <col min="38" max="39" width="34.2222222222222" customWidth="1"/>
-    <col min="40" max="40" width="34.2222222222222" style="4" customWidth="1"/>
+    <col min="40" max="40" width="34.2222222222222" style="5" customWidth="1"/>
     <col min="41" max="77" width="34.2222222222222" customWidth="1"/>
     <col min="78" max="78" width="14" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="3" customFormat="1" ht="19.4" customHeight="1" spans="1:78">
-      <c r="A1" s="3" t="s">
+    <row r="1" s="4" customFormat="1" ht="19.4" customHeight="1" spans="1:78">
+      <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="5" t="s">
+      <c r="G1" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="5" t="s">
+      <c r="H1" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="5" t="s">
+      <c r="I1" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="J1" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="3" t="s">
+      <c r="K1" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="3" t="s">
+      <c r="L1" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="3" t="s">
+      <c r="M1" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="3" t="s">
+      <c r="N1" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="3" t="s">
+      <c r="O1" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="5" t="s">
+      <c r="P1" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="3" t="s">
+      <c r="Q1" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="3" t="s">
+      <c r="R1" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="5" t="s">
+      <c r="S1" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="T1" s="3" t="s">
+      <c r="T1" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="U1" s="3" t="s">
+      <c r="U1" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="V1" s="5" t="s">
+      <c r="V1" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="W1" s="3" t="s">
+      <c r="W1" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="X1" s="3" t="s">
+      <c r="X1" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="Y1" s="3" t="s">
+      <c r="Y1" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="Z1" s="3" t="s">
+      <c r="Z1" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="AA1" s="5" t="s">
+      <c r="AA1" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="AB1" s="3" t="s">
+      <c r="AB1" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="AC1" s="3" t="s">
+      <c r="AC1" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="AD1" s="3" t="s">
+      <c r="AD1" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="AE1" s="5" t="s">
+      <c r="AE1" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="AF1" s="3" t="s">
+      <c r="AF1" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="AG1" s="3" t="s">
+      <c r="AG1" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="AH1" s="5" t="s">
+      <c r="AH1" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="AI1" s="3" t="s">
+      <c r="AI1" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="AJ1" s="3" t="s">
+      <c r="AJ1" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="AK1" s="5" t="s">
+      <c r="AK1" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="AL1" s="3" t="s">
+      <c r="AL1" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="AM1" s="3" t="s">
+      <c r="AM1" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="AN1" s="5" t="s">
+      <c r="AN1" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="AO1" s="3" t="s">
+      <c r="AO1" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="AP1" s="3" t="s">
+      <c r="AP1" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="AQ1" s="3" t="s">
+      <c r="AQ1" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="AR1" s="3" t="s">
+      <c r="AR1" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="AS1" s="3" t="s">
+      <c r="AS1" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="AT1" s="3" t="s">
+      <c r="AT1" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="AU1" s="3" t="s">
+      <c r="AU1" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="AV1" s="3" t="s">
+      <c r="AV1" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="AW1" s="3" t="s">
+      <c r="AW1" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="AX1" s="3" t="s">
+      <c r="AX1" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="AY1" s="3" t="s">
+      <c r="AY1" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="AZ1" s="3" t="s">
+      <c r="AZ1" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="BA1" s="3" t="s">
+      <c r="BA1" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="BB1" s="3" t="s">
+      <c r="BB1" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="BC1" s="3" t="s">
+      <c r="BC1" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="BD1" s="3" t="s">
+      <c r="BD1" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="BE1" s="3" t="s">
+      <c r="BE1" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="BF1" s="3" t="s">
+      <c r="BF1" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="BG1" s="3" t="s">
+      <c r="BG1" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="BH1" s="3" t="s">
+      <c r="BH1" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="BI1" s="3" t="s">
+      <c r="BI1" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="BJ1" s="3" t="s">
+      <c r="BJ1" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="BK1" s="3" t="s">
+      <c r="BK1" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="BL1" s="3" t="s">
+      <c r="BL1" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="BM1" s="3" t="s">
+      <c r="BM1" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="BN1" s="3" t="s">
+      <c r="BN1" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="BO1" s="3" t="s">
+      <c r="BO1" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="BP1" s="3" t="s">
+      <c r="BP1" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="BQ1" s="3" t="s">
+      <c r="BQ1" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="BR1" s="3" t="s">
+      <c r="BR1" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="BS1" s="3" t="s">
+      <c r="BS1" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="BT1" s="3" t="s">
+      <c r="BT1" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="BU1" s="3" t="s">
+      <c r="BU1" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="BV1" s="3" t="s">
+      <c r="BV1" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="BW1" s="3" t="s">
+      <c r="BW1" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="BX1" s="3" t="s">
+      <c r="BX1" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="BY1" s="3" t="s">
+      <c r="BY1" s="6" t="s">
         <v>76</v>
       </c>
-      <c r="BZ1" s="3" t="s">
+      <c r="BZ1" s="6" t="s">
         <v>77</v>
       </c>
     </row>
@@ -2317,13 +2209,13 @@
       <c r="F2" t="s">
         <v>83</v>
       </c>
-      <c r="G2" s="4" t="s">
+      <c r="G2" s="5" t="s">
         <v>84</v>
       </c>
-      <c r="H2" s="4" t="s">
+      <c r="H2" s="5" t="s">
         <v>85</v>
       </c>
-      <c r="I2" s="4" t="s">
+      <c r="I2" s="5" t="s">
         <v>86</v>
       </c>
       <c r="J2" t="s">
@@ -2344,7 +2236,7 @@
       <c r="O2" t="s">
         <v>92</v>
       </c>
-      <c r="P2" s="4" t="s">
+      <c r="P2" s="5" t="s">
         <v>93</v>
       </c>
       <c r="Q2" t="s">
@@ -2353,19 +2245,19 @@
       <c r="R2" t="s">
         <v>95</v>
       </c>
-      <c r="S2" s="4" t="s">
+      <c r="S2" s="5" t="s">
         <v>96</v>
       </c>
-      <c r="T2" s="7" t="s">
+      <c r="T2" s="10" t="s">
         <v>97</v>
       </c>
       <c r="U2" t="s">
         <v>98</v>
       </c>
-      <c r="V2" s="4" t="s">
+      <c r="V2" s="5" t="s">
         <v>96</v>
       </c>
-      <c r="W2" s="7" t="s">
+      <c r="W2" s="10" t="s">
         <v>99</v>
       </c>
       <c r="X2" t="s">
@@ -2377,7 +2269,7 @@
       <c r="Z2" t="s">
         <v>102</v>
       </c>
-      <c r="AA2" s="4" t="s">
+      <c r="AA2" s="5" t="s">
         <v>102</v>
       </c>
       <c r="AB2" t="s">
@@ -2389,7 +2281,7 @@
       <c r="AD2" t="s">
         <v>102</v>
       </c>
-      <c r="AE2" s="4" t="s">
+      <c r="AE2" s="5" t="s">
         <v>96</v>
       </c>
       <c r="AF2" t="s">
@@ -2398,7 +2290,7 @@
       <c r="AG2" t="s">
         <v>102</v>
       </c>
-      <c r="AH2" s="4">
+      <c r="AH2" s="5">
         <v>45877</v>
       </c>
       <c r="AI2" t="s">
@@ -2407,7 +2299,7 @@
       <c r="AJ2" t="s">
         <v>102</v>
       </c>
-      <c r="AK2" s="4" t="s">
+      <c r="AK2" s="5" t="s">
         <v>96</v>
       </c>
       <c r="AL2" t="s">
@@ -2416,7 +2308,7 @@
       <c r="AM2" t="s">
         <v>102</v>
       </c>
-      <c r="AN2" s="4" t="s">
+      <c r="AN2" s="5" t="s">
         <v>102</v>
       </c>
       <c r="AO2" t="s">
@@ -2443,14 +2335,14 @@
       <c r="AV2">
         <v>1587423690</v>
       </c>
-      <c r="AW2" t="s">
-        <v>102</v>
+      <c r="AW2" s="9" t="s">
+        <v>108</v>
       </c>
       <c r="AX2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="AY2" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="AZ2">
         <v>2316548</v>
@@ -2459,7 +2351,7 @@
         <v>12651897790</v>
       </c>
       <c r="BB2" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="BC2" t="s">
         <v>102</v>
@@ -2468,13 +2360,13 @@
         <v>102</v>
       </c>
       <c r="BE2" t="s">
-        <v>111</v>
-      </c>
-      <c r="BF2" s="7" t="s">
         <v>112</v>
       </c>
+      <c r="BF2" s="10" t="s">
+        <v>113</v>
+      </c>
       <c r="BG2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="BH2">
         <v>7850</v>
@@ -2522,45 +2414,48 @@
         <v>50</v>
       </c>
       <c r="BY2" t="s">
-        <v>114</v>
-      </c>
-      <c r="BZ2" s="6" t="s">
         <v>115</v>
       </c>
+      <c r="BZ2" s="9" t="s">
+        <v>116</v>
+      </c>
     </row>
     <row r="3" spans="78:78">
-      <c r="BZ3" s="6"/>
+      <c r="BZ3" s="9"/>
     </row>
     <row r="4" spans="78:78">
-      <c r="BZ4" s="6"/>
+      <c r="BZ4" s="9"/>
     </row>
     <row r="5" spans="78:78">
-      <c r="BZ5" s="6"/>
+      <c r="BZ5" s="9"/>
     </row>
     <row r="6" spans="78:78">
-      <c r="BZ6" s="6"/>
+      <c r="BZ6" s="9"/>
     </row>
     <row r="7" spans="78:78">
-      <c r="BZ7" s="6"/>
+      <c r="BZ7" s="9"/>
     </row>
     <row r="8" spans="78:78">
-      <c r="BZ8" s="6"/>
+      <c r="BZ8" s="9"/>
     </row>
     <row r="9" spans="78:78">
-      <c r="BZ9" s="6"/>
+      <c r="BZ9" s="9"/>
     </row>
     <row r="10" spans="78:78">
-      <c r="BZ10" s="6"/>
+      <c r="BZ10" s="9"/>
     </row>
     <row r="11" spans="78:78">
-      <c r="BZ11" s="6"/>
+      <c r="BZ11" s="9"/>
     </row>
   </sheetData>
-  <dataValidations count="8">
+  <dataValidations count="9">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2">
+      <formula1>list!$B:$B</formula1>
+    </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="O2 AF2:AF11 AI2:AI11 AL2:AL11 AO2:AO11">
       <formula1>list!$S$2:$S$4</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2:A11">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A3:A11">
       <formula1>list!$B$2:$B$75</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L2:L11">
@@ -2584,6 +2479,7 @@
   </dataValidations>
   <hyperlinks>
     <hyperlink ref="BZ2" r:id="rId1" display="ffemp@123"/>
+    <hyperlink ref="AW2" r:id="rId2" display="abc@gmail"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
@@ -2593,10 +2489,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:CH75"/>
+  <dimension ref="A1:CH38"/>
   <sheetViews>
-    <sheetView topLeftCell="K1" workbookViewId="0">
-      <selection activeCell="T8" sqref="T8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1:B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
@@ -2609,14 +2505,12 @@
   <sheetData>
     <row r="1" s="1" customFormat="1" spans="1:86">
       <c r="A1" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>118</v>
-      </c>
+        <v>78</v>
+      </c>
+      <c r="C1" s="2"/>
       <c r="D1" s="2"/>
       <c r="E1" s="2"/>
       <c r="F1" s="2"/>
@@ -2629,31 +2523,31 @@
       <c r="M1" s="2"/>
       <c r="N1" s="2"/>
       <c r="O1" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="P1" s="2" t="s">
         <v>119</v>
-      </c>
-      <c r="P1" s="2" t="s">
-        <v>120</v>
       </c>
       <c r="Q1" s="2"/>
       <c r="R1" s="2"/>
       <c r="S1" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="T1" s="2" t="s">
         <v>121</v>
-      </c>
-      <c r="T1" s="2" t="s">
-        <v>122</v>
       </c>
       <c r="U1" s="2"/>
       <c r="V1" s="2"/>
       <c r="W1" s="2"/>
       <c r="X1" s="2"/>
       <c r="Y1" s="2" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="Z1" s="2"/>
       <c r="AA1" s="2"/>
       <c r="AB1" s="2"/>
       <c r="AC1" s="2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="AD1" s="2"/>
       <c r="AE1" s="2"/>
@@ -2678,10 +2572,10 @@
       <c r="AX1" s="2"/>
       <c r="AY1" s="2"/>
       <c r="AZ1" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="BA1" s="2" t="s">
         <v>125</v>
-      </c>
-      <c r="BA1" s="2" t="s">
-        <v>126</v>
       </c>
       <c r="BB1" s="2"/>
       <c r="BC1" s="2"/>
@@ -2708,36 +2602,34 @@
       <c r="BX1" s="2"/>
       <c r="BY1" s="2"/>
       <c r="BZ1" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="CA1" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="CA1" s="2" t="s">
+      <c r="CC1" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="CC1" s="1" t="s">
+      <c r="CD1" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="CD1" s="1" t="s">
+      <c r="CG1" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="CG1" s="1" t="s">
+      <c r="CH1" s="1" t="s">
         <v>131</v>
-      </c>
-      <c r="CH1" s="1" t="s">
-        <v>132</v>
       </c>
     </row>
     <row r="2" s="1" customFormat="1" spans="1:86">
       <c r="A2" s="1">
         <v>1</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="C2" s="1"/>
+      <c r="O2" s="1" t="s">
         <v>133</v>
-      </c>
-      <c r="C2" s="1">
-        <v>77</v>
-      </c>
-      <c r="O2" s="1" t="s">
-        <v>134</v>
       </c>
       <c r="P2" s="1">
         <v>31</v>
@@ -2749,31 +2641,31 @@
         <v>1</v>
       </c>
       <c r="Y2" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="AC2" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="AC2" s="1" t="s">
+      <c r="AZ2" s="1" t="s">
         <v>136</v>
-      </c>
-      <c r="AZ2" s="1" t="s">
-        <v>137</v>
       </c>
       <c r="BA2" s="1">
         <v>0</v>
       </c>
       <c r="BZ2" s="1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="CA2" s="1">
         <v>0</v>
       </c>
       <c r="CC2" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="CD2" s="1">
         <v>1</v>
       </c>
       <c r="CG2" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="CH2" s="1">
         <v>1</v>
@@ -2783,20 +2675,18 @@
       <c r="A3" s="1">
         <v>2</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="C3" s="1"/>
+      <c r="O3" s="1" t="s">
         <v>140</v>
-      </c>
-      <c r="C3" s="1">
-        <v>76</v>
-      </c>
-      <c r="O3" s="1" t="s">
-        <v>141</v>
       </c>
       <c r="P3" s="1">
         <v>1</v>
       </c>
       <c r="S3" s="1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="T3" s="1">
         <v>2</v>
@@ -2805,28 +2695,28 @@
         <v>101</v>
       </c>
       <c r="AC3" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="AZ3" s="1" t="s">
         <v>143</v>
-      </c>
-      <c r="AZ3" s="1" t="s">
-        <v>144</v>
       </c>
       <c r="BA3" s="1">
         <v>1</v>
       </c>
       <c r="BZ3" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="CA3" s="1">
         <v>1</v>
       </c>
       <c r="CC3" s="1" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="CD3" s="1">
         <v>0</v>
       </c>
       <c r="CG3" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="CH3" s="1">
         <v>2</v>
@@ -2836,12 +2726,10 @@
       <c r="A4" s="1">
         <v>3</v>
       </c>
-      <c r="B4" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="C4" s="1">
-        <v>75</v>
-      </c>
+      <c r="B4" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="C4" s="1"/>
       <c r="O4" s="1" t="s">
         <v>89</v>
       </c>
@@ -2849,27 +2737,25 @@
         <v>3</v>
       </c>
       <c r="S4" s="1" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="T4" s="1">
         <v>3</v>
       </c>
       <c r="AC4" s="1" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="5" s="1" customFormat="1" spans="1:29">
       <c r="A5" s="1">
         <v>4</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="B5" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="C5" s="1"/>
+      <c r="O5" s="1" t="s">
         <v>150</v>
-      </c>
-      <c r="C5" s="1">
-        <v>74</v>
-      </c>
-      <c r="O5" s="1" t="s">
-        <v>151</v>
       </c>
       <c r="P5" s="1">
         <v>2</v>
@@ -2882,94 +2768,83 @@
       <c r="A6" s="1">
         <v>5</v>
       </c>
-      <c r="B6" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="C6" s="1">
-        <v>73</v>
-      </c>
+      <c r="B6" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="C6" s="1"/>
       <c r="O6" s="1" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="P6" s="1">
         <v>35</v>
       </c>
       <c r="AC6" s="1" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="7" s="1" customFormat="1" spans="1:29">
       <c r="A7" s="1">
         <v>6</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="B7" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="O7" s="1" t="s">
         <v>154</v>
-      </c>
-      <c r="C7" s="1">
-        <v>72</v>
-      </c>
-      <c r="O7" s="1" t="s">
-        <v>155</v>
       </c>
       <c r="P7" s="1">
         <v>5</v>
       </c>
       <c r="AC7" s="1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="8" s="1" customFormat="1" spans="1:29">
       <c r="A8" s="1">
         <v>7</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="B8" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="C8" s="1"/>
+      <c r="O8" s="1" t="s">
         <v>157</v>
-      </c>
-      <c r="C8" s="1">
-        <v>71</v>
-      </c>
-      <c r="O8" s="1" t="s">
-        <v>158</v>
       </c>
       <c r="P8" s="1">
         <v>30</v>
       </c>
       <c r="AC8" s="1" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="9" s="1" customFormat="1" spans="1:29">
       <c r="A9" s="1">
         <v>8</v>
       </c>
-      <c r="B9" s="1" t="s">
+      <c r="B9" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="C9" s="1"/>
+      <c r="O9" s="1" t="s">
         <v>160</v>
-      </c>
-      <c r="C9" s="1">
-        <v>70</v>
-      </c>
-      <c r="O9" s="1" t="s">
-        <v>161</v>
       </c>
       <c r="P9" s="1">
         <v>34</v>
       </c>
       <c r="AC9" s="1" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="10" s="1" customFormat="1" spans="1:16">
       <c r="A10" s="1">
         <v>9</v>
       </c>
-      <c r="B10" s="1" t="s">
+      <c r="B10" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="C10" s="1"/>
+      <c r="O10" s="1" t="s">
         <v>163</v>
-      </c>
-      <c r="C10" s="1">
-        <v>69</v>
-      </c>
-      <c r="O10" s="1" t="s">
-        <v>164</v>
       </c>
       <c r="P10" s="1">
         <v>29</v>
@@ -2979,14 +2854,11 @@
       <c r="A11" s="1">
         <v>10</v>
       </c>
-      <c r="B11" s="1" t="s">
+      <c r="B11" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="O11" s="1" t="s">
         <v>165</v>
-      </c>
-      <c r="C11" s="1">
-        <v>68</v>
-      </c>
-      <c r="O11" s="1" t="s">
-        <v>166</v>
       </c>
       <c r="P11" s="1">
         <v>28</v>
@@ -2996,14 +2868,12 @@
       <c r="A12" s="1">
         <v>11</v>
       </c>
-      <c r="B12" s="1" t="s">
+      <c r="B12" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="C12" s="1"/>
+      <c r="O12" s="1" t="s">
         <v>167</v>
-      </c>
-      <c r="C12" s="1">
-        <v>67</v>
-      </c>
-      <c r="O12" s="1" t="s">
-        <v>168</v>
       </c>
       <c r="P12" s="1">
         <v>37</v>
@@ -3013,14 +2883,12 @@
       <c r="A13" s="1">
         <v>12</v>
       </c>
-      <c r="B13" s="1" t="s">
+      <c r="B13" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="C13" s="1"/>
+      <c r="O13" s="1" t="s">
         <v>169</v>
-      </c>
-      <c r="C13" s="1">
-        <v>66</v>
-      </c>
-      <c r="O13" s="1" t="s">
-        <v>170</v>
       </c>
       <c r="P13" s="1">
         <v>25</v>
@@ -3030,14 +2898,12 @@
       <c r="A14" s="1">
         <v>13</v>
       </c>
-      <c r="B14" s="1" t="s">
+      <c r="B14" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="C14" s="1"/>
+      <c r="O14" s="1" t="s">
         <v>171</v>
-      </c>
-      <c r="C14" s="1">
-        <v>65</v>
-      </c>
-      <c r="O14" s="1" t="s">
-        <v>172</v>
       </c>
       <c r="P14" s="1">
         <v>4</v>
@@ -3047,20 +2913,18 @@
       <c r="A15" s="1">
         <v>14</v>
       </c>
-      <c r="B15" s="1" t="s">
+      <c r="B15" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="C15" s="1"/>
+      <c r="O15" s="1" t="s">
         <v>173</v>
-      </c>
-      <c r="C15" s="1">
-        <v>64</v>
-      </c>
-      <c r="O15" s="1" t="s">
-        <v>174</v>
       </c>
       <c r="P15" s="1">
         <v>6</v>
       </c>
       <c r="Z15" s="1" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="AB15" s="1" t="s">
         <v>94</v>
@@ -3070,840 +2934,240 @@
       <c r="A16" s="1">
         <v>15</v>
       </c>
-      <c r="B16" s="1" t="s">
+      <c r="B16" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="C16" s="1"/>
+      <c r="O16" s="1" t="s">
         <v>175</v>
-      </c>
-      <c r="C16" s="1">
-        <v>63</v>
-      </c>
-      <c r="O16" s="1" t="s">
-        <v>176</v>
       </c>
       <c r="P16" s="1">
         <v>7</v>
       </c>
       <c r="Z16" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="AB16" s="1" t="s">
         <v>177</v>
-      </c>
-      <c r="AB16" s="1" t="s">
-        <v>178</v>
       </c>
     </row>
     <row r="17" s="1" customFormat="1" spans="1:28">
       <c r="A17" s="1">
         <v>16</v>
       </c>
-      <c r="B17" s="1" t="s">
+      <c r="B17" s="3" t="s">
+        <v>178</v>
+      </c>
+      <c r="C17" s="1"/>
+      <c r="O17" s="1" t="s">
         <v>179</v>
-      </c>
-      <c r="C17" s="1">
-        <v>62</v>
-      </c>
-      <c r="O17" s="1" t="s">
-        <v>180</v>
       </c>
       <c r="P17" s="1">
         <v>8</v>
       </c>
       <c r="Z17" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="AB17" s="1" t="s">
         <v>181</v>
       </c>
-      <c r="AB17" s="1" t="s">
+    </row>
+    <row r="18" s="1" customFormat="1" spans="15:28">
+      <c r="O18" s="1" t="s">
         <v>182</v>
-      </c>
-    </row>
-    <row r="18" s="1" customFormat="1" spans="1:28">
-      <c r="A18" s="1">
-        <v>17</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>183</v>
-      </c>
-      <c r="C18" s="1">
-        <v>61</v>
-      </c>
-      <c r="O18" s="1" t="s">
-        <v>184</v>
       </c>
       <c r="P18" s="1">
         <v>33</v>
       </c>
       <c r="AB18" s="1" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="19" s="1" customFormat="1" spans="1:28">
-      <c r="A19" s="1">
-        <v>18</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>186</v>
-      </c>
-      <c r="C19" s="1">
-        <v>60</v>
-      </c>
+        <v>183</v>
+      </c>
+    </row>
+    <row r="19" s="1" customFormat="1" spans="15:28">
       <c r="O19" s="1" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="P19" s="1">
         <v>9</v>
       </c>
       <c r="AB19" s="1" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="20" s="1" customFormat="1" spans="1:28">
-      <c r="A20" s="1">
-        <v>19</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>189</v>
-      </c>
-      <c r="C20" s="1">
-        <v>59</v>
-      </c>
+        <v>185</v>
+      </c>
+    </row>
+    <row r="20" s="1" customFormat="1" spans="15:28">
       <c r="O20" s="1" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="P20" s="1">
         <v>10</v>
       </c>
       <c r="AB20" s="1" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="21" s="1" customFormat="1" spans="1:28">
-      <c r="A21" s="1">
-        <v>20</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>192</v>
-      </c>
-      <c r="C21" s="1">
-        <v>58</v>
-      </c>
+        <v>187</v>
+      </c>
+    </row>
+    <row r="21" s="1" customFormat="1" spans="15:28">
       <c r="O21" s="1" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="P21" s="1">
         <v>27</v>
       </c>
       <c r="AB21" s="1" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="22" s="1" customFormat="1" spans="1:28">
-      <c r="A22" s="1">
-        <v>21</v>
-      </c>
-      <c r="B22" s="1" t="s">
-        <v>195</v>
-      </c>
-      <c r="C22" s="1">
-        <v>57</v>
-      </c>
+        <v>189</v>
+      </c>
+    </row>
+    <row r="22" s="1" customFormat="1" spans="15:28">
       <c r="O22" s="1" t="s">
-        <v>196</v>
+        <v>190</v>
       </c>
       <c r="P22" s="1">
         <v>11</v>
       </c>
       <c r="AB22" s="1" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="23" s="1" customFormat="1" spans="1:28">
-      <c r="A23" s="1">
-        <v>22</v>
-      </c>
-      <c r="B23" s="1" t="s">
-        <v>198</v>
-      </c>
-      <c r="C23" s="1">
-        <v>56</v>
-      </c>
+        <v>191</v>
+      </c>
+    </row>
+    <row r="23" s="1" customFormat="1" spans="15:28">
       <c r="O23" s="1" t="s">
-        <v>199</v>
+        <v>192</v>
       </c>
       <c r="P23" s="1">
         <v>12</v>
       </c>
       <c r="AB23" s="1" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="24" s="1" customFormat="1" spans="1:28">
-      <c r="A24" s="1">
-        <v>23</v>
-      </c>
-      <c r="B24" s="1" t="s">
-        <v>201</v>
-      </c>
-      <c r="C24" s="1">
-        <v>55</v>
-      </c>
+        <v>193</v>
+      </c>
+    </row>
+    <row r="24" s="1" customFormat="1" spans="15:28">
       <c r="O24" s="1" t="s">
-        <v>202</v>
+        <v>194</v>
       </c>
       <c r="P24" s="1">
         <v>13</v>
       </c>
       <c r="AB24" s="1" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="25" s="1" customFormat="1" spans="1:28">
-      <c r="A25" s="1">
-        <v>24</v>
-      </c>
-      <c r="B25" s="1" t="s">
-        <v>204</v>
-      </c>
-      <c r="C25" s="1">
-        <v>54</v>
-      </c>
+        <v>195</v>
+      </c>
+    </row>
+    <row r="25" s="1" customFormat="1" spans="15:28">
       <c r="O25" s="1" t="s">
-        <v>205</v>
+        <v>196</v>
       </c>
       <c r="P25" s="1">
         <v>14</v>
       </c>
       <c r="AB25" s="1" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="26" s="1" customFormat="1" spans="1:28">
-      <c r="A26" s="1">
-        <v>25</v>
-      </c>
-      <c r="B26" s="1" t="s">
-        <v>207</v>
-      </c>
-      <c r="C26" s="1">
-        <v>53</v>
-      </c>
+        <v>197</v>
+      </c>
+    </row>
+    <row r="26" s="1" customFormat="1" spans="15:28">
       <c r="O26" s="1" t="s">
-        <v>208</v>
+        <v>198</v>
       </c>
       <c r="P26" s="1">
         <v>15</v>
       </c>
       <c r="AB26" s="1" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="27" s="1" customFormat="1" spans="1:28">
-      <c r="A27" s="1">
-        <v>26</v>
-      </c>
-      <c r="B27" s="1" t="s">
-        <v>210</v>
-      </c>
-      <c r="C27" s="1">
-        <v>52</v>
-      </c>
+        <v>199</v>
+      </c>
+    </row>
+    <row r="27" s="1" customFormat="1" spans="15:28">
       <c r="O27" s="1" t="s">
-        <v>211</v>
+        <v>200</v>
       </c>
       <c r="P27" s="1">
         <v>16</v>
       </c>
       <c r="AB27" s="1" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="28" s="1" customFormat="1" spans="1:16">
-      <c r="A28" s="1">
-        <v>27</v>
-      </c>
-      <c r="B28" s="1" t="s">
-        <v>213</v>
-      </c>
-      <c r="C28" s="1">
-        <v>51</v>
-      </c>
+        <v>201</v>
+      </c>
+    </row>
+    <row r="28" s="1" customFormat="1" spans="15:16">
       <c r="O28" s="1" t="s">
-        <v>214</v>
+        <v>202</v>
       </c>
       <c r="P28" s="1">
         <v>17</v>
       </c>
     </row>
-    <row r="29" s="1" customFormat="1" spans="1:16">
-      <c r="A29" s="1">
-        <v>28</v>
-      </c>
-      <c r="B29" s="1" t="s">
-        <v>215</v>
-      </c>
-      <c r="C29" s="1">
-        <v>50</v>
-      </c>
+    <row r="29" s="1" customFormat="1" spans="15:16">
       <c r="O29" s="1" t="s">
-        <v>216</v>
+        <v>203</v>
       </c>
       <c r="P29" s="1">
         <v>26</v>
       </c>
     </row>
-    <row r="30" s="1" customFormat="1" spans="1:16">
-      <c r="A30" s="1">
-        <v>29</v>
-      </c>
-      <c r="B30" s="1" t="s">
-        <v>217</v>
-      </c>
-      <c r="C30" s="1">
-        <v>49</v>
-      </c>
+    <row r="30" s="1" customFormat="1" spans="15:16">
       <c r="O30" s="1" t="s">
-        <v>218</v>
+        <v>204</v>
       </c>
       <c r="P30" s="1">
         <v>18</v>
       </c>
     </row>
-    <row r="31" s="1" customFormat="1" spans="1:16">
-      <c r="A31" s="1">
-        <v>30</v>
-      </c>
-      <c r="B31" s="1" t="s">
-        <v>219</v>
-      </c>
-      <c r="C31" s="1">
-        <v>48</v>
-      </c>
+    <row r="31" s="1" customFormat="1" spans="15:16">
       <c r="O31" s="1" t="s">
-        <v>220</v>
+        <v>205</v>
       </c>
       <c r="P31" s="1">
         <v>19</v>
       </c>
     </row>
-    <row r="32" s="1" customFormat="1" spans="1:16">
-      <c r="A32" s="1">
-        <v>31</v>
-      </c>
-      <c r="B32" s="1" t="s">
-        <v>221</v>
-      </c>
-      <c r="C32" s="1">
-        <v>47</v>
-      </c>
+    <row r="32" s="1" customFormat="1" spans="15:16">
       <c r="O32" s="1" t="s">
-        <v>222</v>
+        <v>206</v>
       </c>
       <c r="P32" s="1">
         <v>20</v>
       </c>
     </row>
-    <row r="33" s="1" customFormat="1" spans="1:16">
-      <c r="A33" s="1">
-        <v>32</v>
-      </c>
-      <c r="B33" s="1" t="s">
-        <v>223</v>
-      </c>
-      <c r="C33" s="1">
-        <v>46</v>
-      </c>
+    <row r="33" s="1" customFormat="1" spans="15:16">
       <c r="O33" s="1" t="s">
-        <v>224</v>
+        <v>207</v>
       </c>
       <c r="P33" s="1">
         <v>21</v>
       </c>
     </row>
-    <row r="34" s="1" customFormat="1" spans="1:16">
-      <c r="A34" s="1">
-        <v>33</v>
-      </c>
-      <c r="B34" s="1" t="s">
-        <v>225</v>
-      </c>
-      <c r="C34" s="1">
-        <v>45</v>
-      </c>
+    <row r="34" s="1" customFormat="1" spans="15:16">
       <c r="O34" s="1" t="s">
-        <v>226</v>
+        <v>208</v>
       </c>
       <c r="P34" s="1">
         <v>36</v>
       </c>
     </row>
-    <row r="35" s="1" customFormat="1" spans="1:16">
-      <c r="A35" s="1">
-        <v>34</v>
-      </c>
-      <c r="B35" s="1" t="s">
-        <v>227</v>
-      </c>
-      <c r="C35" s="1">
-        <v>43</v>
-      </c>
+    <row r="35" s="1" customFormat="1" spans="15:16">
       <c r="O35" s="1" t="s">
-        <v>228</v>
+        <v>209</v>
       </c>
       <c r="P35" s="1">
         <v>22</v>
       </c>
     </row>
-    <row r="36" s="1" customFormat="1" spans="1:16">
-      <c r="A36" s="1">
-        <v>35</v>
-      </c>
-      <c r="B36" s="1" t="s">
-        <v>229</v>
-      </c>
-      <c r="C36" s="1">
-        <v>42</v>
-      </c>
+    <row r="36" s="1" customFormat="1" spans="15:16">
       <c r="O36" s="1" t="s">
-        <v>230</v>
+        <v>210</v>
       </c>
       <c r="P36" s="1">
         <v>23</v>
       </c>
     </row>
-    <row r="37" s="1" customFormat="1" spans="1:16">
-      <c r="A37" s="1">
-        <v>36</v>
-      </c>
-      <c r="B37" s="1" t="s">
-        <v>231</v>
-      </c>
-      <c r="C37" s="1">
-        <v>40</v>
-      </c>
+    <row r="37" s="1" customFormat="1" spans="15:16">
       <c r="O37" s="1" t="s">
-        <v>232</v>
+        <v>211</v>
       </c>
       <c r="P37" s="1">
         <v>32</v>
       </c>
     </row>
-    <row r="38" s="1" customFormat="1" spans="1:16">
-      <c r="A38" s="1">
-        <v>37</v>
-      </c>
-      <c r="B38" s="1" t="s">
-        <v>233</v>
-      </c>
-      <c r="C38" s="1">
-        <v>39</v>
-      </c>
+    <row r="38" s="1" customFormat="1" spans="15:16">
       <c r="O38" s="1" t="s">
-        <v>234</v>
+        <v>212</v>
       </c>
       <c r="P38" s="1">
         <v>24</v>
-      </c>
-    </row>
-    <row r="39" s="1" customFormat="1" spans="1:3">
-      <c r="A39" s="1">
-        <v>38</v>
-      </c>
-      <c r="B39" s="1" t="s">
-        <v>235</v>
-      </c>
-      <c r="C39" s="1">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="40" s="1" customFormat="1" spans="1:3">
-      <c r="A40" s="1">
-        <v>39</v>
-      </c>
-      <c r="B40" s="1" t="s">
-        <v>236</v>
-      </c>
-      <c r="C40" s="1">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="41" s="1" customFormat="1" spans="1:3">
-      <c r="A41" s="1">
-        <v>40</v>
-      </c>
-      <c r="B41" s="1" t="s">
-        <v>237</v>
-      </c>
-      <c r="C41" s="1">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="42" s="1" customFormat="1" spans="1:3">
-      <c r="A42" s="1">
-        <v>41</v>
-      </c>
-      <c r="B42" s="1" t="s">
-        <v>238</v>
-      </c>
-      <c r="C42" s="1">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="43" s="1" customFormat="1" spans="1:3">
-      <c r="A43" s="1">
-        <v>42</v>
-      </c>
-      <c r="B43" s="1" t="s">
-        <v>239</v>
-      </c>
-      <c r="C43" s="1">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="44" s="1" customFormat="1" spans="1:3">
-      <c r="A44" s="1">
-        <v>43</v>
-      </c>
-      <c r="B44" s="1" t="s">
-        <v>240</v>
-      </c>
-      <c r="C44" s="1">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="45" s="1" customFormat="1" spans="1:3">
-      <c r="A45" s="1">
-        <v>44</v>
-      </c>
-      <c r="B45" s="1" t="s">
-        <v>241</v>
-      </c>
-      <c r="C45" s="1">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="46" s="1" customFormat="1" spans="1:3">
-      <c r="A46" s="1">
-        <v>45</v>
-      </c>
-      <c r="B46" s="1" t="s">
-        <v>242</v>
-      </c>
-      <c r="C46" s="1">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="47" s="1" customFormat="1" spans="1:3">
-      <c r="A47" s="1">
-        <v>46</v>
-      </c>
-      <c r="B47" s="1" t="s">
-        <v>243</v>
-      </c>
-      <c r="C47" s="1">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="48" s="1" customFormat="1" spans="1:3">
-      <c r="A48" s="1">
-        <v>47</v>
-      </c>
-      <c r="B48" s="1" t="s">
-        <v>244</v>
-      </c>
-      <c r="C48" s="1">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="49" s="1" customFormat="1" spans="1:3">
-      <c r="A49" s="1">
-        <v>48</v>
-      </c>
-      <c r="B49" s="1" t="s">
-        <v>245</v>
-      </c>
-      <c r="C49" s="1">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="50" s="1" customFormat="1" spans="1:3">
-      <c r="A50" s="1">
-        <v>49</v>
-      </c>
-      <c r="B50" s="1" t="s">
-        <v>246</v>
-      </c>
-      <c r="C50" s="1">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="51" s="1" customFormat="1" spans="1:3">
-      <c r="A51" s="1">
-        <v>50</v>
-      </c>
-      <c r="B51" s="1" t="s">
-        <v>247</v>
-      </c>
-      <c r="C51" s="1">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="52" s="1" customFormat="1" spans="1:3">
-      <c r="A52" s="1">
-        <v>51</v>
-      </c>
-      <c r="B52" s="1" t="s">
-        <v>248</v>
-      </c>
-      <c r="C52" s="1">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="53" s="1" customFormat="1" spans="1:3">
-      <c r="A53" s="1">
-        <v>52</v>
-      </c>
-      <c r="B53" s="1" t="s">
-        <v>249</v>
-      </c>
-      <c r="C53" s="1">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="54" s="1" customFormat="1" spans="1:3">
-      <c r="A54" s="1">
-        <v>53</v>
-      </c>
-      <c r="B54" s="1" t="s">
-        <v>250</v>
-      </c>
-      <c r="C54" s="1">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="55" s="1" customFormat="1" spans="1:3">
-      <c r="A55" s="1">
-        <v>54</v>
-      </c>
-      <c r="B55" s="1" t="s">
-        <v>251</v>
-      </c>
-      <c r="C55" s="1">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="56" s="1" customFormat="1" spans="1:3">
-      <c r="A56" s="1">
-        <v>55</v>
-      </c>
-      <c r="B56" s="1" t="s">
-        <v>252</v>
-      </c>
-      <c r="C56" s="1">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="57" s="1" customFormat="1" spans="1:3">
-      <c r="A57" s="1">
-        <v>56</v>
-      </c>
-      <c r="B57" s="1" t="s">
-        <v>253</v>
-      </c>
-      <c r="C57" s="1">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="58" s="1" customFormat="1" spans="1:3">
-      <c r="A58" s="1">
-        <v>57</v>
-      </c>
-      <c r="B58" s="1" t="s">
-        <v>254</v>
-      </c>
-      <c r="C58" s="1">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="59" s="1" customFormat="1" spans="1:3">
-      <c r="A59" s="1">
-        <v>58</v>
-      </c>
-      <c r="B59" s="1" t="s">
-        <v>255</v>
-      </c>
-      <c r="C59" s="1">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="60" s="1" customFormat="1" spans="1:3">
-      <c r="A60" s="1">
-        <v>59</v>
-      </c>
-      <c r="B60" s="1" t="s">
-        <v>256</v>
-      </c>
-      <c r="C60" s="1">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="61" s="1" customFormat="1" spans="1:3">
-      <c r="A61" s="1">
-        <v>60</v>
-      </c>
-      <c r="B61" s="1" t="s">
-        <v>257</v>
-      </c>
-      <c r="C61" s="1">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="62" s="1" customFormat="1" spans="1:3">
-      <c r="A62" s="1">
-        <v>61</v>
-      </c>
-      <c r="B62" s="1" t="s">
-        <v>258</v>
-      </c>
-      <c r="C62" s="1">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="63" s="1" customFormat="1" spans="1:3">
-      <c r="A63" s="1">
-        <v>62</v>
-      </c>
-      <c r="B63" s="1" t="s">
-        <v>259</v>
-      </c>
-      <c r="C63" s="1">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="64" s="1" customFormat="1" spans="1:3">
-      <c r="A64" s="1">
-        <v>63</v>
-      </c>
-      <c r="B64" s="1" t="s">
-        <v>260</v>
-      </c>
-      <c r="C64" s="1">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="65" s="1" customFormat="1" spans="1:3">
-      <c r="A65" s="1">
-        <v>64</v>
-      </c>
-      <c r="B65" s="1" t="s">
-        <v>261</v>
-      </c>
-      <c r="C65" s="1">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="66" s="1" customFormat="1" spans="1:3">
-      <c r="A66" s="1">
-        <v>65</v>
-      </c>
-      <c r="B66" s="1" t="s">
-        <v>262</v>
-      </c>
-      <c r="C66" s="1">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="67" s="1" customFormat="1" spans="1:3">
-      <c r="A67" s="1">
-        <v>66</v>
-      </c>
-      <c r="B67" s="1" t="s">
-        <v>263</v>
-      </c>
-      <c r="C67" s="1">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="68" s="1" customFormat="1" spans="1:3">
-      <c r="A68" s="1">
-        <v>67</v>
-      </c>
-      <c r="B68" s="1" t="s">
-        <v>264</v>
-      </c>
-      <c r="C68" s="1">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="69" s="1" customFormat="1" spans="1:3">
-      <c r="A69" s="1">
-        <v>68</v>
-      </c>
-      <c r="B69" s="1" t="s">
-        <v>265</v>
-      </c>
-      <c r="C69" s="1">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="70" s="1" customFormat="1" spans="1:3">
-      <c r="A70" s="1">
-        <v>69</v>
-      </c>
-      <c r="B70" s="1" t="s">
-        <v>266</v>
-      </c>
-      <c r="C70" s="1">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="71" s="1" customFormat="1" spans="1:3">
-      <c r="A71" s="1">
-        <v>70</v>
-      </c>
-      <c r="B71" s="1" t="s">
-        <v>267</v>
-      </c>
-      <c r="C71" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="72" s="1" customFormat="1" spans="1:3">
-      <c r="A72" s="1">
-        <v>71</v>
-      </c>
-      <c r="B72" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="C72" s="1">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="73" s="1" customFormat="1" spans="1:3">
-      <c r="A73" s="1">
-        <v>72</v>
-      </c>
-      <c r="B73" s="1" t="s">
-        <v>268</v>
-      </c>
-      <c r="C73" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="74" s="1" customFormat="1" spans="1:3">
-      <c r="A74" s="1">
-        <v>73</v>
-      </c>
-      <c r="B74" s="1" t="s">
-        <v>269</v>
-      </c>
-      <c r="C74" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="75" s="1" customFormat="1" spans="1:3">
-      <c r="A75" s="1">
-        <v>74</v>
-      </c>
-      <c r="B75" s="1" t="s">
-        <v>270</v>
-      </c>
-      <c r="C75" s="1">
-        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/public/admin/approvedcandidates_formate.xlsx
+++ b/public/admin/approvedcandidates_formate.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22188" windowHeight="9000"/>
+    <workbookView windowWidth="22188" windowHeight="9000" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="approvedcandidates_formate" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="240" uniqueCount="213">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="241" uniqueCount="214">
   <si>
     <t>Client_Name</t>
   </si>
@@ -312,7 +312,7 @@
     <t>15-6-2001</t>
   </si>
   <si>
-    <t>5th</t>
+    <t>ILLITERATE</t>
   </si>
   <si>
     <t>DK</t>
@@ -490,6 +490,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
       <t>Digital Age Retail Private Limited</t>
     </r>
     <r>
@@ -534,6 +540,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
       <t>Mehler Engineered Products</t>
     </r>
     <r>
@@ -601,6 +613,9 @@
     <t>HARYANA</t>
   </si>
   <si>
+    <t>5th</t>
+  </si>
+  <si>
     <t>Urbanlogix Global India Private Limited</t>
   </si>
   <si>
@@ -640,7 +655,7 @@
     <t>KERALA</t>
   </si>
   <si>
-    <t>10th</t>
+    <t>SSLC</t>
   </si>
   <si>
     <t>LAKSHDWEEP</t>
@@ -652,25 +667,25 @@
     <t>MADHYA PRADESH</t>
   </si>
   <si>
+    <t>DIPLOMA</t>
+  </si>
+  <si>
+    <t>MAHARASHTRA</t>
+  </si>
+  <si>
+    <t>Under_Graduate</t>
+  </si>
+  <si>
+    <t>MANIPUR</t>
+  </si>
+  <si>
     <t>Graduate</t>
   </si>
   <si>
-    <t>MAHARASHTRA</t>
-  </si>
-  <si>
-    <t>Under_Graduate</t>
-  </si>
-  <si>
-    <t>MANIPUR</t>
+    <t>MEGHALAYA</t>
   </si>
   <si>
     <t>Post_Graduate</t>
-  </si>
-  <si>
-    <t>MEGHALAYA</t>
-  </si>
-  <si>
-    <t>DIPLOMA</t>
   </si>
   <si>
     <t>MIZORAM</t>
@@ -1361,7 +1376,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1369,6 +1384,9 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1926,267 +1944,267 @@
   <sheetPr/>
   <dimension ref="A1:BZ11"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleSheetLayoutView="60" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+    <sheetView zoomScaleSheetLayoutView="60" topLeftCell="M1" workbookViewId="0">
+      <selection activeCell="Q12" sqref="Q12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10" defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="6" width="34.2222222222222" customWidth="1"/>
-    <col min="7" max="9" width="34.2222222222222" style="5" customWidth="1"/>
+    <col min="7" max="9" width="34.2222222222222" style="6" customWidth="1"/>
     <col min="10" max="15" width="34.2222222222222" customWidth="1"/>
-    <col min="16" max="16" width="34.2222222222222" style="5" customWidth="1"/>
+    <col min="16" max="16" width="34.2222222222222" style="6" customWidth="1"/>
     <col min="17" max="18" width="34.2222222222222" customWidth="1"/>
-    <col min="19" max="19" width="34.2222222222222" style="5" customWidth="1"/>
+    <col min="19" max="19" width="34.2222222222222" style="6" customWidth="1"/>
     <col min="20" max="21" width="34.2222222222222" customWidth="1"/>
-    <col min="22" max="22" width="34.2222222222222" style="5" customWidth="1"/>
+    <col min="22" max="22" width="34.2222222222222" style="6" customWidth="1"/>
     <col min="23" max="26" width="34.2222222222222" customWidth="1"/>
-    <col min="27" max="27" width="34.2222222222222" style="5" customWidth="1"/>
+    <col min="27" max="27" width="34.2222222222222" style="6" customWidth="1"/>
     <col min="28" max="30" width="34.2222222222222" customWidth="1"/>
-    <col min="31" max="31" width="34.2222222222222" style="5" customWidth="1"/>
+    <col min="31" max="31" width="34.2222222222222" style="6" customWidth="1"/>
     <col min="32" max="33" width="34.2222222222222" customWidth="1"/>
-    <col min="34" max="34" width="34.2222222222222" style="5" customWidth="1"/>
+    <col min="34" max="34" width="34.2222222222222" style="6" customWidth="1"/>
     <col min="35" max="36" width="34.2222222222222" customWidth="1"/>
-    <col min="37" max="37" width="34.2222222222222" style="5" customWidth="1"/>
+    <col min="37" max="37" width="34.2222222222222" style="6" customWidth="1"/>
     <col min="38" max="39" width="34.2222222222222" customWidth="1"/>
-    <col min="40" max="40" width="34.2222222222222" style="5" customWidth="1"/>
+    <col min="40" max="40" width="34.2222222222222" style="6" customWidth="1"/>
     <col min="41" max="77" width="34.2222222222222" customWidth="1"/>
     <col min="78" max="78" width="14" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="4" customFormat="1" ht="19.4" customHeight="1" spans="1:78">
-      <c r="A1" s="6" t="s">
+    <row r="1" s="5" customFormat="1" ht="19.4" customHeight="1" spans="1:78">
+      <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="E1" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="6" t="s">
+      <c r="F1" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="7" t="s">
+      <c r="G1" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="7" t="s">
+      <c r="H1" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="8" t="s">
+      <c r="I1" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="6" t="s">
+      <c r="J1" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="6" t="s">
+      <c r="K1" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="6" t="s">
+      <c r="L1" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="6" t="s">
+      <c r="M1" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="4" t="s">
+      <c r="N1" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="6" t="s">
+      <c r="O1" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="7" t="s">
+      <c r="P1" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="6" t="s">
+      <c r="Q1" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="6" t="s">
+      <c r="R1" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="7" t="s">
+      <c r="S1" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="T1" s="4" t="s">
+      <c r="T1" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="U1" s="6" t="s">
+      <c r="U1" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="V1" s="7" t="s">
+      <c r="V1" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="W1" s="4" t="s">
+      <c r="W1" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="X1" s="6" t="s">
+      <c r="X1" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="Y1" s="6" t="s">
+      <c r="Y1" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="Z1" s="4" t="s">
+      <c r="Z1" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="AA1" s="8" t="s">
+      <c r="AA1" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="AB1" s="4" t="s">
+      <c r="AB1" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="AC1" s="4" t="s">
+      <c r="AC1" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="AD1" s="4" t="s">
+      <c r="AD1" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="AE1" s="8" t="s">
+      <c r="AE1" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="AF1" s="4" t="s">
+      <c r="AF1" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="AG1" s="4" t="s">
+      <c r="AG1" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="AH1" s="8" t="s">
+      <c r="AH1" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="AI1" s="4" t="s">
+      <c r="AI1" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="AJ1" s="4" t="s">
+      <c r="AJ1" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="AK1" s="8" t="s">
+      <c r="AK1" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="AL1" s="4" t="s">
+      <c r="AL1" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="AM1" s="4" t="s">
+      <c r="AM1" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="AN1" s="8" t="s">
+      <c r="AN1" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="AO1" s="4" t="s">
+      <c r="AO1" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="AP1" s="6" t="s">
+      <c r="AP1" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="AQ1" s="6" t="s">
+      <c r="AQ1" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="AR1" s="6" t="s">
+      <c r="AR1" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="AS1" s="6" t="s">
+      <c r="AS1" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="AT1" s="6" t="s">
+      <c r="AT1" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="AU1" s="6" t="s">
+      <c r="AU1" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="AV1" s="6" t="s">
+      <c r="AV1" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="AW1" s="4" t="s">
+      <c r="AW1" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="AX1" s="6" t="s">
+      <c r="AX1" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="AY1" s="6" t="s">
+      <c r="AY1" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="AZ1" s="6" t="s">
+      <c r="AZ1" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="BA1" s="6" t="s">
+      <c r="BA1" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="BB1" s="4" t="s">
+      <c r="BB1" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="BC1" s="4" t="s">
+      <c r="BC1" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="BD1" s="4" t="s">
+      <c r="BD1" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="BE1" s="6" t="s">
+      <c r="BE1" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="BF1" s="6" t="s">
+      <c r="BF1" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="BG1" s="6" t="s">
+      <c r="BG1" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="BH1" s="4" t="s">
+      <c r="BH1" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="BI1" s="4" t="s">
+      <c r="BI1" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="BJ1" s="4" t="s">
+      <c r="BJ1" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="BK1" s="4" t="s">
+      <c r="BK1" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="BL1" s="4" t="s">
+      <c r="BL1" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="BM1" s="4" t="s">
+      <c r="BM1" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="BN1" s="4" t="s">
+      <c r="BN1" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="BO1" s="4" t="s">
+      <c r="BO1" s="5" t="s">
         <v>66</v>
       </c>
-      <c r="BP1" s="4" t="s">
+      <c r="BP1" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="BQ1" s="4" t="s">
+      <c r="BQ1" s="5" t="s">
         <v>68</v>
       </c>
-      <c r="BR1" s="4" t="s">
+      <c r="BR1" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="BS1" s="4" t="s">
+      <c r="BS1" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="BT1" s="4" t="s">
+      <c r="BT1" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="BU1" s="4" t="s">
+      <c r="BU1" s="5" t="s">
         <v>72</v>
       </c>
-      <c r="BV1" s="4" t="s">
+      <c r="BV1" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="BW1" s="4" t="s">
+      <c r="BW1" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="BX1" s="4" t="s">
+      <c r="BX1" s="5" t="s">
         <v>75</v>
       </c>
-      <c r="BY1" s="6" t="s">
+      <c r="BY1" s="7" t="s">
         <v>76</v>
       </c>
-      <c r="BZ1" s="6" t="s">
+      <c r="BZ1" s="7" t="s">
         <v>77</v>
       </c>
     </row>
@@ -2209,13 +2227,13 @@
       <c r="F2" t="s">
         <v>83</v>
       </c>
-      <c r="G2" s="5" t="s">
+      <c r="G2" s="6" t="s">
         <v>84</v>
       </c>
-      <c r="H2" s="5" t="s">
+      <c r="H2" s="6" t="s">
         <v>85</v>
       </c>
-      <c r="I2" s="5" t="s">
+      <c r="I2" s="6" t="s">
         <v>86</v>
       </c>
       <c r="J2" t="s">
@@ -2236,7 +2254,7 @@
       <c r="O2" t="s">
         <v>92</v>
       </c>
-      <c r="P2" s="5" t="s">
+      <c r="P2" s="6" t="s">
         <v>93</v>
       </c>
       <c r="Q2" t="s">
@@ -2245,19 +2263,19 @@
       <c r="R2" t="s">
         <v>95</v>
       </c>
-      <c r="S2" s="5" t="s">
+      <c r="S2" s="6" t="s">
         <v>96</v>
       </c>
-      <c r="T2" s="10" t="s">
+      <c r="T2" s="11" t="s">
         <v>97</v>
       </c>
       <c r="U2" t="s">
         <v>98</v>
       </c>
-      <c r="V2" s="5" t="s">
+      <c r="V2" s="6" t="s">
         <v>96</v>
       </c>
-      <c r="W2" s="10" t="s">
+      <c r="W2" s="11" t="s">
         <v>99</v>
       </c>
       <c r="X2" t="s">
@@ -2269,7 +2287,7 @@
       <c r="Z2" t="s">
         <v>102</v>
       </c>
-      <c r="AA2" s="5" t="s">
+      <c r="AA2" s="6" t="s">
         <v>102</v>
       </c>
       <c r="AB2" t="s">
@@ -2281,7 +2299,7 @@
       <c r="AD2" t="s">
         <v>102</v>
       </c>
-      <c r="AE2" s="5" t="s">
+      <c r="AE2" s="6" t="s">
         <v>96</v>
       </c>
       <c r="AF2" t="s">
@@ -2290,7 +2308,7 @@
       <c r="AG2" t="s">
         <v>102</v>
       </c>
-      <c r="AH2" s="5">
+      <c r="AH2" s="6">
         <v>45877</v>
       </c>
       <c r="AI2" t="s">
@@ -2299,7 +2317,7 @@
       <c r="AJ2" t="s">
         <v>102</v>
       </c>
-      <c r="AK2" s="5" t="s">
+      <c r="AK2" s="6" t="s">
         <v>96</v>
       </c>
       <c r="AL2" t="s">
@@ -2308,7 +2326,7 @@
       <c r="AM2" t="s">
         <v>102</v>
       </c>
-      <c r="AN2" s="5" t="s">
+      <c r="AN2" s="6" t="s">
         <v>102</v>
       </c>
       <c r="AO2" t="s">
@@ -2335,7 +2353,7 @@
       <c r="AV2">
         <v>1587423690</v>
       </c>
-      <c r="AW2" s="9" t="s">
+      <c r="AW2" s="10" t="s">
         <v>108</v>
       </c>
       <c r="AX2" t="s">
@@ -2362,7 +2380,7 @@
       <c r="BE2" t="s">
         <v>112</v>
       </c>
-      <c r="BF2" s="10" t="s">
+      <c r="BF2" s="11" t="s">
         <v>113</v>
       </c>
       <c r="BG2" t="s">
@@ -2416,44 +2434,47 @@
       <c r="BY2" t="s">
         <v>115</v>
       </c>
-      <c r="BZ2" s="9" t="s">
+      <c r="BZ2" s="10" t="s">
         <v>116</v>
       </c>
     </row>
     <row r="3" spans="78:78">
-      <c r="BZ3" s="9"/>
+      <c r="BZ3" s="10"/>
     </row>
     <row r="4" spans="78:78">
-      <c r="BZ4" s="9"/>
+      <c r="BZ4" s="10"/>
     </row>
     <row r="5" spans="78:78">
-      <c r="BZ5" s="9"/>
+      <c r="BZ5" s="10"/>
     </row>
     <row r="6" spans="78:78">
-      <c r="BZ6" s="9"/>
+      <c r="BZ6" s="10"/>
     </row>
     <row r="7" spans="78:78">
-      <c r="BZ7" s="9"/>
+      <c r="BZ7" s="10"/>
     </row>
     <row r="8" spans="78:78">
-      <c r="BZ8" s="9"/>
+      <c r="BZ8" s="10"/>
     </row>
     <row r="9" spans="78:78">
-      <c r="BZ9" s="9"/>
+      <c r="BZ9" s="10"/>
     </row>
     <row r="10" spans="78:78">
-      <c r="BZ10" s="9"/>
+      <c r="BZ10" s="10"/>
     </row>
     <row r="11" spans="78:78">
-      <c r="BZ11" s="9"/>
+      <c r="BZ11" s="10"/>
     </row>
   </sheetData>
-  <dataValidations count="9">
+  <dataValidations count="10">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2">
       <formula1>list!$B:$B</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="O2 AF2:AF11 AI2:AI11 AL2:AL11 AO2:AO11">
       <formula1>list!$S$2:$S$4</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Q2">
+      <formula1>list!$AB$14:$AB$27</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A3:A11">
       <formula1>list!$B$2:$B$75</formula1>
@@ -2464,8 +2485,8 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="O3:O11">
       <formula1>list!$S$2:$S$3</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Q2:Q11">
-      <formula1>list!$AB$15:$AB$27</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Q3:Q11">
+      <formula1>list!$AB$15:$AB$28</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Y2:Y11">
       <formula1>list!$Y$2:$Y$3</formula1>
@@ -2491,8 +2512,8 @@
   <sheetPr/>
   <dimension ref="A1:CH38"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1:B17"/>
+    <sheetView tabSelected="1" topLeftCell="P7" workbookViewId="0">
+      <selection activeCell="AA30" sqref="AA30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
@@ -2627,7 +2648,6 @@
       <c r="B2" s="3" t="s">
         <v>132</v>
       </c>
-      <c r="C2" s="1"/>
       <c r="O2" s="1" t="s">
         <v>133</v>
       </c>
@@ -2678,7 +2698,6 @@
       <c r="B3" s="3" t="s">
         <v>139</v>
       </c>
-      <c r="C3" s="1"/>
       <c r="O3" s="1" t="s">
         <v>140</v>
       </c>
@@ -2729,7 +2748,6 @@
       <c r="B4" s="3" t="s">
         <v>146</v>
       </c>
-      <c r="C4" s="1"/>
       <c r="O4" s="1" t="s">
         <v>89</v>
       </c>
@@ -2753,7 +2771,6 @@
       <c r="B5" s="3" t="s">
         <v>149</v>
       </c>
-      <c r="C5" s="1"/>
       <c r="O5" s="1" t="s">
         <v>150</v>
       </c>
@@ -2771,7 +2788,6 @@
       <c r="B6" s="3" t="s">
         <v>151</v>
       </c>
-      <c r="C6" s="1"/>
       <c r="O6" s="1" t="s">
         <v>150</v>
       </c>
@@ -2806,7 +2822,6 @@
       <c r="B8" s="3" t="s">
         <v>156</v>
       </c>
-      <c r="C8" s="1"/>
       <c r="O8" s="1" t="s">
         <v>157</v>
       </c>
@@ -2824,7 +2839,6 @@
       <c r="B9" s="3" t="s">
         <v>159</v>
       </c>
-      <c r="C9" s="1"/>
       <c r="O9" s="1" t="s">
         <v>160</v>
       </c>
@@ -2842,7 +2856,6 @@
       <c r="B10" s="3" t="s">
         <v>162</v>
       </c>
-      <c r="C10" s="1"/>
       <c r="O10" s="1" t="s">
         <v>163</v>
       </c>
@@ -2871,7 +2884,6 @@
       <c r="B12" s="3" t="s">
         <v>166</v>
       </c>
-      <c r="C12" s="1"/>
       <c r="O12" s="1" t="s">
         <v>167</v>
       </c>
@@ -2886,7 +2898,6 @@
       <c r="B13" s="3" t="s">
         <v>168</v>
       </c>
-      <c r="C13" s="1"/>
       <c r="O13" s="1" t="s">
         <v>169</v>
       </c>
@@ -2894,19 +2905,21 @@
         <v>25</v>
       </c>
     </row>
-    <row r="14" s="1" customFormat="1" spans="1:16">
+    <row r="14" s="1" customFormat="1" spans="1:28">
       <c r="A14" s="1">
         <v>13</v>
       </c>
       <c r="B14" s="3" t="s">
         <v>170</v>
       </c>
-      <c r="C14" s="1"/>
       <c r="O14" s="1" t="s">
         <v>171</v>
       </c>
       <c r="P14" s="1">
         <v>4</v>
+      </c>
+      <c r="AB14" s="1" t="s">
+        <v>94</v>
       </c>
     </row>
     <row r="15" s="1" customFormat="1" spans="1:28">
@@ -2916,7 +2929,6 @@
       <c r="B15" s="3" t="s">
         <v>172</v>
       </c>
-      <c r="C15" s="1"/>
       <c r="O15" s="1" t="s">
         <v>173</v>
       </c>
@@ -2927,7 +2939,7 @@
         <v>115</v>
       </c>
       <c r="AB15" s="1" t="s">
-        <v>94</v>
+        <v>174</v>
       </c>
     </row>
     <row r="16" s="1" customFormat="1" spans="1:28">
@@ -2935,20 +2947,19 @@
         <v>15</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>174</v>
-      </c>
-      <c r="C16" s="1"/>
+        <v>175</v>
+      </c>
       <c r="O16" s="1" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="P16" s="1">
         <v>7</v>
       </c>
       <c r="Z16" s="1" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="AB16" s="1" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
     </row>
     <row r="17" s="1" customFormat="1" spans="1:28">
@@ -2956,135 +2967,134 @@
         <v>16</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>178</v>
-      </c>
-      <c r="C17" s="1"/>
+        <v>179</v>
+      </c>
       <c r="O17" s="1" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="P17" s="1">
         <v>8</v>
       </c>
       <c r="Z17" s="1" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="AB17" s="1" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
     </row>
     <row r="18" s="1" customFormat="1" spans="15:28">
       <c r="O18" s="1" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="P18" s="1">
         <v>33</v>
       </c>
       <c r="AB18" s="1" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
     </row>
     <row r="19" s="1" customFormat="1" spans="15:28">
       <c r="O19" s="1" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="P19" s="1">
         <v>9</v>
       </c>
       <c r="AB19" s="1" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
     </row>
     <row r="20" s="1" customFormat="1" spans="15:28">
       <c r="O20" s="1" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="P20" s="1">
         <v>10</v>
       </c>
       <c r="AB20" s="1" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
     </row>
     <row r="21" s="1" customFormat="1" spans="15:28">
       <c r="O21" s="1" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="P21" s="1">
         <v>27</v>
       </c>
       <c r="AB21" s="1" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
     </row>
     <row r="22" s="1" customFormat="1" spans="15:28">
       <c r="O22" s="1" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="P22" s="1">
         <v>11</v>
       </c>
-      <c r="AB22" s="1" t="s">
-        <v>191</v>
+      <c r="AB22" s="4" t="s">
+        <v>192</v>
       </c>
     </row>
     <row r="23" s="1" customFormat="1" spans="15:28">
       <c r="O23" s="1" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="P23" s="1">
         <v>12</v>
       </c>
       <c r="AB23" s="1" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
     </row>
     <row r="24" s="1" customFormat="1" spans="15:28">
       <c r="O24" s="1" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="P24" s="1">
         <v>13</v>
       </c>
       <c r="AB24" s="1" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
     </row>
     <row r="25" s="1" customFormat="1" spans="15:28">
       <c r="O25" s="1" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="P25" s="1">
         <v>14</v>
       </c>
       <c r="AB25" s="1" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
     </row>
     <row r="26" s="1" customFormat="1" spans="15:28">
       <c r="O26" s="1" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="P26" s="1">
         <v>15</v>
       </c>
       <c r="AB26" s="1" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
     </row>
     <row r="27" s="1" customFormat="1" spans="15:28">
       <c r="O27" s="1" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="P27" s="1">
         <v>16</v>
       </c>
       <c r="AB27" s="1" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
     </row>
     <row r="28" s="1" customFormat="1" spans="15:16">
       <c r="O28" s="1" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="P28" s="1">
         <v>17</v>
@@ -3092,7 +3102,7 @@
     </row>
     <row r="29" s="1" customFormat="1" spans="15:16">
       <c r="O29" s="1" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="P29" s="1">
         <v>26</v>
@@ -3100,7 +3110,7 @@
     </row>
     <row r="30" s="1" customFormat="1" spans="15:16">
       <c r="O30" s="1" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="P30" s="1">
         <v>18</v>
@@ -3108,7 +3118,7 @@
     </row>
     <row r="31" s="1" customFormat="1" spans="15:16">
       <c r="O31" s="1" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="P31" s="1">
         <v>19</v>
@@ -3116,7 +3126,7 @@
     </row>
     <row r="32" s="1" customFormat="1" spans="15:16">
       <c r="O32" s="1" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="P32" s="1">
         <v>20</v>
@@ -3124,7 +3134,7 @@
     </row>
     <row r="33" s="1" customFormat="1" spans="15:16">
       <c r="O33" s="1" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="P33" s="1">
         <v>21</v>
@@ -3132,7 +3142,7 @@
     </row>
     <row r="34" s="1" customFormat="1" spans="15:16">
       <c r="O34" s="1" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="P34" s="1">
         <v>36</v>
@@ -3140,7 +3150,7 @@
     </row>
     <row r="35" s="1" customFormat="1" spans="15:16">
       <c r="O35" s="1" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="P35" s="1">
         <v>22</v>
@@ -3148,7 +3158,7 @@
     </row>
     <row r="36" s="1" customFormat="1" spans="15:16">
       <c r="O36" s="1" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="P36" s="1">
         <v>23</v>
@@ -3156,7 +3166,7 @@
     </row>
     <row r="37" s="1" customFormat="1" spans="15:16">
       <c r="O37" s="1" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="P37" s="1">
         <v>32</v>
@@ -3164,7 +3174,7 @@
     </row>
     <row r="38" s="1" customFormat="1" spans="15:16">
       <c r="O38" s="1" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="P38" s="1">
         <v>24</v>

--- a/public/admin/approvedcandidates_formate.xlsx
+++ b/public/admin/approvedcandidates_formate.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:dbsheet="http://web.wps.cn/et/2021/dbsheet">
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22188" windowHeight="9000" activeTab="1"/>
+    <workbookView windowWidth="22188" windowHeight="9000"/>
   </bookViews>
   <sheets>
     <sheet name="approvedcandidates_formate" sheetId="1" r:id="rId1"/>
@@ -159,13 +159,13 @@
     <t>Mother_Tongue</t>
   </si>
   <si>
-    <t>Emer_Contact_No</t>
-  </si>
-  <si>
-    <t>Emer_Name</t>
-  </si>
-  <si>
-    <t>Emer_Relation</t>
+    <t>Emergency_Contact_No</t>
+  </si>
+  <si>
+    <t>Emergency_Name</t>
+  </si>
+  <si>
+    <t>Emergency_Relation</t>
   </si>
   <si>
     <t>Blood_Group</t>
@@ -1684,6 +1684,13 @@
 </styleSheet>
 </file>
 
+<file path=xl/customStorage/customStorage.xml><?xml version="1.0" encoding="utf-8"?>
+<customStorage xmlns="https://web.wps.cn/et/2018/main">
+  <book/>
+  <sheets/>
+</customStorage>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
   <a:themeElements>
@@ -1944,8 +1951,8 @@
   <sheetPr/>
   <dimension ref="A1:BZ11"/>
   <sheetViews>
-    <sheetView zoomScaleSheetLayoutView="60" topLeftCell="M1" workbookViewId="0">
-      <selection activeCell="Q12" sqref="Q12"/>
+    <sheetView tabSelected="1" zoomScaleSheetLayoutView="60" topLeftCell="AQ1" workbookViewId="0">
+      <selection activeCell="AU1" sqref="AU1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10" defaultRowHeight="14.4"/>
@@ -2512,7 +2519,7 @@
   <sheetPr/>
   <dimension ref="A1:CH38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="P7" workbookViewId="0">
+    <sheetView topLeftCell="P1" workbookViewId="0">
       <selection activeCell="AA30" sqref="AA30"/>
     </sheetView>
   </sheetViews>

--- a/public/admin/approvedcandidates_formate.xlsx
+++ b/public/admin/approvedcandidates_formate.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="241" uniqueCount="214">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="243" uniqueCount="216">
   <si>
     <t>Client_Name</t>
   </si>
@@ -213,6 +213,9 @@
     <t>HRA</t>
   </si>
   <si>
+    <t>Conveyance</t>
+  </si>
+  <si>
     <t>Special_Allowance</t>
   </si>
   <si>
@@ -225,22 +228,25 @@
     <t>Gross_Salary</t>
   </si>
   <si>
-    <t>Emp_PF</t>
-  </si>
-  <si>
-    <t>Emp_ESIC</t>
+    <t>Employee_PF</t>
+  </si>
+  <si>
+    <t>Employee_ESIC</t>
+  </si>
+  <si>
+    <t>Employee_LWF</t>
   </si>
   <si>
     <t>PT</t>
   </si>
   <si>
-    <t>Emp_LWF</t>
+    <t>Other_Deduction</t>
   </si>
   <si>
     <t>Total_Deduction</t>
   </si>
   <si>
-    <t>Take_Home</t>
+    <t>Net_Take_Home_Salary - NTH (Gross_Salary - Total_Deduction)</t>
   </si>
   <si>
     <t>Employer_PF</t>
@@ -255,7 +261,7 @@
     <t>Mediclaim</t>
   </si>
   <si>
-    <t>CTC</t>
+    <t>Cost_To_Company - CTC (Gross_Salary + Employer_Deduction)</t>
   </si>
   <si>
     <t>Dcs_Approval</t>
@@ -926,12 +932,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="33">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -1252,7 +1264,7 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1276,16 +1288,16 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
@@ -1294,89 +1306,89 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1405,6 +1417,9 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="6">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1">
       <alignment vertical="center"/>
@@ -1684,13 +1699,6 @@
 </styleSheet>
 </file>
 
-<file path=xl/customStorage/customStorage.xml><?xml version="1.0" encoding="utf-8"?>
-<customStorage xmlns="https://web.wps.cn/et/2018/main">
-  <book/>
-  <sheets/>
-</customStorage>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
   <a:themeElements>
@@ -1949,10 +1957,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:BZ11"/>
+  <dimension ref="A1:CB11"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleSheetLayoutView="60" topLeftCell="AQ1" workbookViewId="0">
-      <selection activeCell="AU1" sqref="AU1"/>
+    <sheetView tabSelected="1" zoomScaleSheetLayoutView="60" topLeftCell="BW1" workbookViewId="0">
+      <selection activeCell="BY6" sqref="BY6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10" defaultRowHeight="14.4"/>
@@ -1975,11 +1983,15 @@
     <col min="37" max="37" width="34.2222222222222" style="6" customWidth="1"/>
     <col min="38" max="39" width="34.2222222222222" customWidth="1"/>
     <col min="40" max="40" width="34.2222222222222" style="6" customWidth="1"/>
-    <col min="41" max="77" width="34.2222222222222" customWidth="1"/>
-    <col min="78" max="78" width="14" customWidth="1"/>
+    <col min="41" max="72" width="34.2222222222222" customWidth="1"/>
+    <col min="73" max="73" width="77.8888888888889" customWidth="1"/>
+    <col min="74" max="77" width="34.2222222222222" customWidth="1"/>
+    <col min="78" max="78" width="61.5555555555556" customWidth="1"/>
+    <col min="79" max="79" width="34.2222222222222" customWidth="1"/>
+    <col min="80" max="80" width="14" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="5" customFormat="1" ht="19.4" customHeight="1" spans="1:78">
+    <row r="1" s="5" customFormat="1" ht="19.4" customHeight="1" spans="1:80">
       <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
@@ -2157,217 +2169,223 @@
       <c r="BG1" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="BH1" s="5" t="s">
+      <c r="BH1" s="11" t="s">
         <v>59</v>
       </c>
-      <c r="BI1" s="5" t="s">
+      <c r="BI1" s="11" t="s">
         <v>60</v>
       </c>
-      <c r="BJ1" s="5" t="s">
+      <c r="BJ1" s="11" t="s">
         <v>61</v>
       </c>
-      <c r="BK1" s="5" t="s">
+      <c r="BK1" s="11" t="s">
         <v>62</v>
       </c>
-      <c r="BL1" s="5" t="s">
+      <c r="BL1" s="11" t="s">
         <v>63</v>
       </c>
-      <c r="BM1" s="5" t="s">
+      <c r="BM1" s="11" t="s">
         <v>64</v>
       </c>
-      <c r="BN1" s="5" t="s">
+      <c r="BN1" s="11" t="s">
         <v>65</v>
       </c>
-      <c r="BO1" s="5" t="s">
+      <c r="BO1" s="11" t="s">
         <v>66</v>
       </c>
-      <c r="BP1" s="5" t="s">
+      <c r="BP1" s="11" t="s">
         <v>67</v>
       </c>
-      <c r="BQ1" s="5" t="s">
+      <c r="BQ1" s="11" t="s">
         <v>68</v>
       </c>
-      <c r="BR1" s="5" t="s">
+      <c r="BR1" s="11" t="s">
         <v>69</v>
       </c>
-      <c r="BS1" s="5" t="s">
+      <c r="BS1" s="11" t="s">
         <v>70</v>
       </c>
-      <c r="BT1" s="5" t="s">
+      <c r="BT1" s="11" t="s">
         <v>71</v>
       </c>
-      <c r="BU1" s="5" t="s">
+      <c r="BU1" s="11" t="s">
         <v>72</v>
       </c>
-      <c r="BV1" s="5" t="s">
+      <c r="BV1" s="11" t="s">
         <v>73</v>
       </c>
-      <c r="BW1" s="5" t="s">
+      <c r="BW1" s="11" t="s">
         <v>74</v>
       </c>
-      <c r="BX1" s="5" t="s">
+      <c r="BX1" s="11" t="s">
         <v>75</v>
       </c>
-      <c r="BY1" s="7" t="s">
+      <c r="BY1" s="11" t="s">
         <v>76</v>
       </c>
-      <c r="BZ1" s="7" t="s">
+      <c r="BZ1" s="11" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="2" spans="1:78">
+      <c r="CA1" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="CB1" s="7" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="2" spans="1:80">
       <c r="A2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="C2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="D2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="E2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="F2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="G2" s="6" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="H2" s="6" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="I2" s="6" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="J2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="K2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="L2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="M2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="N2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="O2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="P2" s="6" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="Q2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="R2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="S2" s="6" t="s">
-        <v>96</v>
-      </c>
-      <c r="T2" s="11" t="s">
-        <v>97</v>
+        <v>98</v>
+      </c>
+      <c r="T2" s="12" t="s">
+        <v>99</v>
       </c>
       <c r="U2" t="s">
+        <v>100</v>
+      </c>
+      <c r="V2" s="6" t="s">
         <v>98</v>
       </c>
-      <c r="V2" s="6" t="s">
-        <v>96</v>
-      </c>
-      <c r="W2" s="11" t="s">
-        <v>99</v>
+      <c r="W2" s="12" t="s">
+        <v>101</v>
       </c>
       <c r="X2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="Y2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="Z2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="AA2" s="6" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="AB2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="AC2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="AD2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="AE2" s="6" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="AF2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="AG2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="AH2" s="6">
         <v>45877</v>
       </c>
       <c r="AI2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="AJ2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="AK2" s="6" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="AL2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="AM2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="AN2" s="6" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="AO2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="AP2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="AQ2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="AR2">
         <v>159874632</v>
       </c>
       <c r="AS2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="AT2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="AU2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="AV2">
         <v>1587423690</v>
       </c>
       <c r="AW2" s="10" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="AX2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="AY2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="AZ2">
         <v>2316548</v>
@@ -2376,22 +2394,22 @@
         <v>12651897790</v>
       </c>
       <c r="BB2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="BC2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="BD2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="BE2" t="s">
-        <v>112</v>
-      </c>
-      <c r="BF2" s="11" t="s">
-        <v>113</v>
+        <v>114</v>
+      </c>
+      <c r="BF2" s="12" t="s">
+        <v>115</v>
       </c>
       <c r="BG2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="BH2">
         <v>7850</v>
@@ -2438,39 +2456,39 @@
       <c r="BX2">
         <v>50</v>
       </c>
-      <c r="BY2" t="s">
-        <v>115</v>
-      </c>
-      <c r="BZ2" s="10" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="3" spans="78:78">
-      <c r="BZ3" s="10"/>
-    </row>
-    <row r="4" spans="78:78">
-      <c r="BZ4" s="10"/>
-    </row>
-    <row r="5" spans="78:78">
-      <c r="BZ5" s="10"/>
-    </row>
-    <row r="6" spans="78:78">
-      <c r="BZ6" s="10"/>
-    </row>
-    <row r="7" spans="78:78">
-      <c r="BZ7" s="10"/>
-    </row>
-    <row r="8" spans="78:78">
-      <c r="BZ8" s="10"/>
-    </row>
-    <row r="9" spans="78:78">
-      <c r="BZ9" s="10"/>
-    </row>
-    <row r="10" spans="78:78">
-      <c r="BZ10" s="10"/>
-    </row>
-    <row r="11" spans="78:78">
-      <c r="BZ11" s="10"/>
+      <c r="CA2" t="s">
+        <v>117</v>
+      </c>
+      <c r="CB2" s="10" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="3" spans="80:80">
+      <c r="CB3" s="10"/>
+    </row>
+    <row r="4" spans="80:80">
+      <c r="CB4" s="10"/>
+    </row>
+    <row r="5" spans="80:80">
+      <c r="CB5" s="10"/>
+    </row>
+    <row r="6" spans="80:80">
+      <c r="CB6" s="10"/>
+    </row>
+    <row r="7" spans="80:80">
+      <c r="CB7" s="10"/>
+    </row>
+    <row r="8" spans="80:80">
+      <c r="CB8" s="10"/>
+    </row>
+    <row r="9" spans="80:80">
+      <c r="CB9" s="10"/>
+    </row>
+    <row r="10" spans="80:80">
+      <c r="CB10" s="10"/>
+    </row>
+    <row r="11" spans="80:80">
+      <c r="CB11" s="10"/>
     </row>
   </sheetData>
   <dataValidations count="10">
@@ -2501,12 +2519,12 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AU2:AU11">
       <formula1>list!$AC$2:$AC$9</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="BY2:BY11">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="CA2:CA11 BY2:BZ11">
       <formula1>list!$Z$15:$Z$17</formula1>
     </dataValidation>
   </dataValidations>
   <hyperlinks>
-    <hyperlink ref="BZ2" r:id="rId1" display="ffemp@123"/>
+    <hyperlink ref="CB2" r:id="rId1" display="ffemp@123"/>
     <hyperlink ref="AW2" r:id="rId2" display="abc@gmail"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -2533,10 +2551,10 @@
   <sheetData>
     <row r="1" s="1" customFormat="1" spans="1:86">
       <c r="A1" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="C1" s="2"/>
       <c r="D1" s="2"/>
@@ -2551,31 +2569,31 @@
       <c r="M1" s="2"/>
       <c r="N1" s="2"/>
       <c r="O1" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="P1" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="Q1" s="2"/>
       <c r="R1" s="2"/>
       <c r="S1" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="T1" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="U1" s="2"/>
       <c r="V1" s="2"/>
       <c r="W1" s="2"/>
       <c r="X1" s="2"/>
       <c r="Y1" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="Z1" s="2"/>
       <c r="AA1" s="2"/>
       <c r="AB1" s="2"/>
       <c r="AC1" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="AD1" s="2"/>
       <c r="AE1" s="2"/>
@@ -2600,10 +2618,10 @@
       <c r="AX1" s="2"/>
       <c r="AY1" s="2"/>
       <c r="AZ1" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="BA1" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="BB1" s="2"/>
       <c r="BC1" s="2"/>
@@ -2630,22 +2648,22 @@
       <c r="BX1" s="2"/>
       <c r="BY1" s="2"/>
       <c r="BZ1" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="CA1" s="2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="CC1" s="1" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="CD1" s="1" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="CG1" s="1" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="CH1" s="1" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
     </row>
     <row r="2" s="1" customFormat="1" spans="1:86">
@@ -2653,46 +2671,46 @@
         <v>1</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="O2" s="1" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="P2" s="1">
         <v>31</v>
       </c>
       <c r="S2" s="1" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="T2" s="1">
         <v>1</v>
       </c>
       <c r="Y2" s="1" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="AC2" s="1" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="AZ2" s="1" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="BA2" s="1">
         <v>0</v>
       </c>
       <c r="BZ2" s="1" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="CA2" s="1">
         <v>0</v>
       </c>
       <c r="CC2" s="1" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="CD2" s="1">
         <v>1</v>
       </c>
       <c r="CG2" s="1" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="CH2" s="1">
         <v>1</v>
@@ -2703,46 +2721,46 @@
         <v>2</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="O3" s="1" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="P3" s="1">
         <v>1</v>
       </c>
       <c r="S3" s="1" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="T3" s="1">
         <v>2</v>
       </c>
       <c r="Y3" s="1" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="AC3" s="1" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="AZ3" s="1" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="BA3" s="1">
         <v>1</v>
       </c>
       <c r="BZ3" s="1" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="CA3" s="1">
         <v>1</v>
       </c>
       <c r="CC3" s="1" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="CD3" s="1">
         <v>0</v>
       </c>
       <c r="CG3" s="1" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="CH3" s="1">
         <v>2</v>
@@ -2753,22 +2771,22 @@
         <v>3</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="O4" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="P4" s="1">
         <v>3</v>
       </c>
       <c r="S4" s="1" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="T4" s="1">
         <v>3</v>
       </c>
       <c r="AC4" s="1" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
     </row>
     <row r="5" s="1" customFormat="1" spans="1:29">
@@ -2776,16 +2794,16 @@
         <v>4</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="O5" s="1" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="P5" s="1">
         <v>2</v>
       </c>
       <c r="AC5" s="1" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
     </row>
     <row r="6" s="1" customFormat="1" spans="1:29">
@@ -2793,16 +2811,16 @@
         <v>5</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="O6" s="1" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="P6" s="1">
         <v>35</v>
       </c>
       <c r="AC6" s="1" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
     </row>
     <row r="7" s="1" customFormat="1" spans="1:29">
@@ -2810,16 +2828,16 @@
         <v>6</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="O7" s="1" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="P7" s="1">
         <v>5</v>
       </c>
       <c r="AC7" s="1" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
     </row>
     <row r="8" s="1" customFormat="1" spans="1:29">
@@ -2827,16 +2845,16 @@
         <v>7</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="O8" s="1" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="P8" s="1">
         <v>30</v>
       </c>
       <c r="AC8" s="1" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
     </row>
     <row r="9" s="1" customFormat="1" spans="1:29">
@@ -2844,16 +2862,16 @@
         <v>8</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="O9" s="1" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="P9" s="1">
         <v>34</v>
       </c>
       <c r="AC9" s="1" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
     </row>
     <row r="10" s="1" customFormat="1" spans="1:16">
@@ -2861,10 +2879,10 @@
         <v>9</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="O10" s="1" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="P10" s="1">
         <v>29</v>
@@ -2875,10 +2893,10 @@
         <v>10</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="O11" s="1" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="P11" s="1">
         <v>28</v>
@@ -2889,10 +2907,10 @@
         <v>11</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="O12" s="1" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="P12" s="1">
         <v>37</v>
@@ -2903,10 +2921,10 @@
         <v>12</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="O13" s="1" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="P13" s="1">
         <v>25</v>
@@ -2917,16 +2935,16 @@
         <v>13</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="O14" s="1" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="P14" s="1">
         <v>4</v>
       </c>
       <c r="AB14" s="1" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
     </row>
     <row r="15" s="1" customFormat="1" spans="1:28">
@@ -2934,19 +2952,19 @@
         <v>14</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="O15" s="1" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="P15" s="1">
         <v>6</v>
       </c>
       <c r="Z15" s="1" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="AB15" s="1" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
     </row>
     <row r="16" s="1" customFormat="1" spans="1:28">
@@ -2954,19 +2972,19 @@
         <v>15</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="O16" s="1" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="P16" s="1">
         <v>7</v>
       </c>
       <c r="Z16" s="1" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="AB16" s="1" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
     </row>
     <row r="17" s="1" customFormat="1" spans="1:28">
@@ -2974,134 +2992,134 @@
         <v>16</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="O17" s="1" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="P17" s="1">
         <v>8</v>
       </c>
       <c r="Z17" s="1" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="AB17" s="1" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
     </row>
     <row r="18" s="1" customFormat="1" spans="15:28">
       <c r="O18" s="1" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="P18" s="1">
         <v>33</v>
       </c>
       <c r="AB18" s="1" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
     </row>
     <row r="19" s="1" customFormat="1" spans="15:28">
       <c r="O19" s="1" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="P19" s="1">
         <v>9</v>
       </c>
       <c r="AB19" s="1" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
     </row>
     <row r="20" s="1" customFormat="1" spans="15:28">
       <c r="O20" s="1" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="P20" s="1">
         <v>10</v>
       </c>
       <c r="AB20" s="1" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
     </row>
     <row r="21" s="1" customFormat="1" spans="15:28">
       <c r="O21" s="1" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="P21" s="1">
         <v>27</v>
       </c>
       <c r="AB21" s="1" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
     </row>
     <row r="22" s="1" customFormat="1" spans="15:28">
       <c r="O22" s="1" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="P22" s="1">
         <v>11</v>
       </c>
       <c r="AB22" s="4" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
     </row>
     <row r="23" s="1" customFormat="1" spans="15:28">
       <c r="O23" s="1" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="P23" s="1">
         <v>12</v>
       </c>
       <c r="AB23" s="1" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
     </row>
     <row r="24" s="1" customFormat="1" spans="15:28">
       <c r="O24" s="1" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="P24" s="1">
         <v>13</v>
       </c>
       <c r="AB24" s="1" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
     </row>
     <row r="25" s="1" customFormat="1" spans="15:28">
       <c r="O25" s="1" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="P25" s="1">
         <v>14</v>
       </c>
       <c r="AB25" s="1" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
     </row>
     <row r="26" s="1" customFormat="1" spans="15:28">
       <c r="O26" s="1" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="P26" s="1">
         <v>15</v>
       </c>
       <c r="AB26" s="1" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
     </row>
     <row r="27" s="1" customFormat="1" spans="15:28">
       <c r="O27" s="1" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="P27" s="1">
         <v>16</v>
       </c>
       <c r="AB27" s="1" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
     </row>
     <row r="28" s="1" customFormat="1" spans="15:16">
       <c r="O28" s="1" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="P28" s="1">
         <v>17</v>
@@ -3109,7 +3127,7 @@
     </row>
     <row r="29" s="1" customFormat="1" spans="15:16">
       <c r="O29" s="1" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="P29" s="1">
         <v>26</v>
@@ -3117,7 +3135,7 @@
     </row>
     <row r="30" s="1" customFormat="1" spans="15:16">
       <c r="O30" s="1" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="P30" s="1">
         <v>18</v>
@@ -3125,7 +3143,7 @@
     </row>
     <row r="31" s="1" customFormat="1" spans="15:16">
       <c r="O31" s="1" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="P31" s="1">
         <v>19</v>
@@ -3133,7 +3151,7 @@
     </row>
     <row r="32" s="1" customFormat="1" spans="15:16">
       <c r="O32" s="1" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="P32" s="1">
         <v>20</v>
@@ -3141,7 +3159,7 @@
     </row>
     <row r="33" s="1" customFormat="1" spans="15:16">
       <c r="O33" s="1" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="P33" s="1">
         <v>21</v>
@@ -3149,7 +3167,7 @@
     </row>
     <row r="34" s="1" customFormat="1" spans="15:16">
       <c r="O34" s="1" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="P34" s="1">
         <v>36</v>
@@ -3157,7 +3175,7 @@
     </row>
     <row r="35" s="1" customFormat="1" spans="15:16">
       <c r="O35" s="1" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="P35" s="1">
         <v>22</v>
@@ -3165,7 +3183,7 @@
     </row>
     <row r="36" s="1" customFormat="1" spans="15:16">
       <c r="O36" s="1" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="P36" s="1">
         <v>23</v>
@@ -3173,7 +3191,7 @@
     </row>
     <row r="37" s="1" customFormat="1" spans="15:16">
       <c r="O37" s="1" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="P37" s="1">
         <v>32</v>
@@ -3181,7 +3199,7 @@
     </row>
     <row r="38" s="1" customFormat="1" spans="15:16">
       <c r="O38" s="1" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="P38" s="1">
         <v>24</v>

--- a/public/admin/approvedcandidates_formate.xlsx
+++ b/public/admin/approvedcandidates_formate.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="243" uniqueCount="216">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="244" uniqueCount="217">
   <si>
     <t>Client_Name</t>
   </si>
@@ -646,6 +646,9 @@
     <t>7th</t>
   </si>
   <si>
+    <t>Unique Punch Systems Pvt Ltd</t>
+  </si>
+  <si>
     <t>JHARKHAND</t>
   </si>
   <si>
@@ -750,7 +753,7 @@
     <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="178" formatCode="m/d/yyyy;@"/>
   </numFmts>
-  <fonts count="24">
+  <fonts count="25">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -769,6 +772,12 @@
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10.1"/>
+      <color rgb="FF000000"/>
+      <name val="Segoe UI"/>
       <charset val="134"/>
     </font>
     <font>
@@ -1258,137 +1267,137 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1397,28 +1406,31 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="178" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="6">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="6">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1">
@@ -1959,30 +1971,30 @@
   <sheetPr/>
   <dimension ref="A1:CB11"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleSheetLayoutView="60" topLeftCell="BW1" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleSheetLayoutView="60" topLeftCell="BX1" workbookViewId="0">
       <selection activeCell="BY6" sqref="BY6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10" defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="6" width="34.2222222222222" customWidth="1"/>
-    <col min="7" max="9" width="34.2222222222222" style="6" customWidth="1"/>
+    <col min="7" max="9" width="34.2222222222222" style="7" customWidth="1"/>
     <col min="10" max="15" width="34.2222222222222" customWidth="1"/>
-    <col min="16" max="16" width="34.2222222222222" style="6" customWidth="1"/>
+    <col min="16" max="16" width="34.2222222222222" style="7" customWidth="1"/>
     <col min="17" max="18" width="34.2222222222222" customWidth="1"/>
-    <col min="19" max="19" width="34.2222222222222" style="6" customWidth="1"/>
+    <col min="19" max="19" width="34.2222222222222" style="7" customWidth="1"/>
     <col min="20" max="21" width="34.2222222222222" customWidth="1"/>
-    <col min="22" max="22" width="34.2222222222222" style="6" customWidth="1"/>
+    <col min="22" max="22" width="34.2222222222222" style="7" customWidth="1"/>
     <col min="23" max="26" width="34.2222222222222" customWidth="1"/>
-    <col min="27" max="27" width="34.2222222222222" style="6" customWidth="1"/>
+    <col min="27" max="27" width="34.2222222222222" style="7" customWidth="1"/>
     <col min="28" max="30" width="34.2222222222222" customWidth="1"/>
-    <col min="31" max="31" width="34.2222222222222" style="6" customWidth="1"/>
+    <col min="31" max="31" width="34.2222222222222" style="7" customWidth="1"/>
     <col min="32" max="33" width="34.2222222222222" customWidth="1"/>
-    <col min="34" max="34" width="34.2222222222222" style="6" customWidth="1"/>
+    <col min="34" max="34" width="34.2222222222222" style="7" customWidth="1"/>
     <col min="35" max="36" width="34.2222222222222" customWidth="1"/>
-    <col min="37" max="37" width="34.2222222222222" style="6" customWidth="1"/>
+    <col min="37" max="37" width="34.2222222222222" style="7" customWidth="1"/>
     <col min="38" max="39" width="34.2222222222222" customWidth="1"/>
-    <col min="40" max="40" width="34.2222222222222" style="6" customWidth="1"/>
+    <col min="40" max="40" width="34.2222222222222" style="7" customWidth="1"/>
     <col min="41" max="72" width="34.2222222222222" customWidth="1"/>
     <col min="73" max="73" width="77.8888888888889" customWidth="1"/>
     <col min="74" max="77" width="34.2222222222222" customWidth="1"/>
@@ -1991,245 +2003,245 @@
     <col min="80" max="80" width="14" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="5" customFormat="1" ht="19.4" customHeight="1" spans="1:80">
-      <c r="A1" s="7" t="s">
+    <row r="1" s="6" customFormat="1" ht="19.4" customHeight="1" spans="1:80">
+      <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="B1" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="C1" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="D1" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="7" t="s">
+      <c r="E1" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="7" t="s">
+      <c r="F1" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="8" t="s">
+      <c r="G1" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="8" t="s">
+      <c r="H1" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="9" t="s">
+      <c r="I1" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="7" t="s">
+      <c r="J1" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="7" t="s">
+      <c r="K1" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="7" t="s">
+      <c r="L1" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="7" t="s">
+      <c r="M1" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="5" t="s">
+      <c r="N1" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="7" t="s">
+      <c r="O1" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="8" t="s">
+      <c r="P1" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="7" t="s">
+      <c r="Q1" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="7" t="s">
+      <c r="R1" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="8" t="s">
+      <c r="S1" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="T1" s="5" t="s">
+      <c r="T1" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="U1" s="7" t="s">
+      <c r="U1" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="V1" s="8" t="s">
+      <c r="V1" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="W1" s="5" t="s">
+      <c r="W1" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="X1" s="7" t="s">
+      <c r="X1" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="Y1" s="7" t="s">
+      <c r="Y1" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="Z1" s="5" t="s">
+      <c r="Z1" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="AA1" s="9" t="s">
+      <c r="AA1" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="AB1" s="5" t="s">
+      <c r="AB1" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="AC1" s="5" t="s">
+      <c r="AC1" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="AD1" s="5" t="s">
+      <c r="AD1" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="AE1" s="9" t="s">
+      <c r="AE1" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="AF1" s="5" t="s">
+      <c r="AF1" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="AG1" s="5" t="s">
+      <c r="AG1" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="AH1" s="9" t="s">
+      <c r="AH1" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="AI1" s="5" t="s">
+      <c r="AI1" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="AJ1" s="5" t="s">
+      <c r="AJ1" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="AK1" s="9" t="s">
+      <c r="AK1" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="AL1" s="5" t="s">
+      <c r="AL1" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="AM1" s="5" t="s">
+      <c r="AM1" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="AN1" s="9" t="s">
+      <c r="AN1" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="AO1" s="5" t="s">
+      <c r="AO1" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="AP1" s="7" t="s">
+      <c r="AP1" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="AQ1" s="7" t="s">
+      <c r="AQ1" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="AR1" s="7" t="s">
+      <c r="AR1" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="AS1" s="7" t="s">
+      <c r="AS1" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="AT1" s="7" t="s">
+      <c r="AT1" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="AU1" s="7" t="s">
+      <c r="AU1" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="AV1" s="7" t="s">
+      <c r="AV1" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="AW1" s="5" t="s">
+      <c r="AW1" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="AX1" s="7" t="s">
+      <c r="AX1" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="AY1" s="7" t="s">
+      <c r="AY1" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="AZ1" s="7" t="s">
+      <c r="AZ1" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="BA1" s="7" t="s">
+      <c r="BA1" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="BB1" s="5" t="s">
+      <c r="BB1" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="BC1" s="5" t="s">
+      <c r="BC1" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="BD1" s="5" t="s">
+      <c r="BD1" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="BE1" s="7" t="s">
+      <c r="BE1" s="8" t="s">
         <v>56</v>
       </c>
-      <c r="BF1" s="7" t="s">
+      <c r="BF1" s="8" t="s">
         <v>57</v>
       </c>
-      <c r="BG1" s="7" t="s">
+      <c r="BG1" s="8" t="s">
         <v>58</v>
       </c>
-      <c r="BH1" s="11" t="s">
+      <c r="BH1" s="12" t="s">
         <v>59</v>
       </c>
-      <c r="BI1" s="11" t="s">
+      <c r="BI1" s="12" t="s">
         <v>60</v>
       </c>
-      <c r="BJ1" s="11" t="s">
+      <c r="BJ1" s="12" t="s">
         <v>61</v>
       </c>
-      <c r="BK1" s="11" t="s">
+      <c r="BK1" s="12" t="s">
         <v>62</v>
       </c>
-      <c r="BL1" s="11" t="s">
+      <c r="BL1" s="12" t="s">
         <v>63</v>
       </c>
-      <c r="BM1" s="11" t="s">
+      <c r="BM1" s="12" t="s">
         <v>64</v>
       </c>
-      <c r="BN1" s="11" t="s">
+      <c r="BN1" s="12" t="s">
         <v>65</v>
       </c>
-      <c r="BO1" s="11" t="s">
+      <c r="BO1" s="12" t="s">
         <v>66</v>
       </c>
-      <c r="BP1" s="11" t="s">
+      <c r="BP1" s="12" t="s">
         <v>67</v>
       </c>
-      <c r="BQ1" s="11" t="s">
+      <c r="BQ1" s="12" t="s">
         <v>68</v>
       </c>
-      <c r="BR1" s="11" t="s">
+      <c r="BR1" s="12" t="s">
         <v>69</v>
       </c>
-      <c r="BS1" s="11" t="s">
+      <c r="BS1" s="12" t="s">
         <v>70</v>
       </c>
-      <c r="BT1" s="11" t="s">
+      <c r="BT1" s="12" t="s">
         <v>71</v>
       </c>
-      <c r="BU1" s="11" t="s">
+      <c r="BU1" s="12" t="s">
         <v>72</v>
       </c>
-      <c r="BV1" s="11" t="s">
+      <c r="BV1" s="12" t="s">
         <v>73</v>
       </c>
-      <c r="BW1" s="11" t="s">
+      <c r="BW1" s="12" t="s">
         <v>74</v>
       </c>
-      <c r="BX1" s="11" t="s">
+      <c r="BX1" s="12" t="s">
         <v>75</v>
       </c>
-      <c r="BY1" s="11" t="s">
+      <c r="BY1" s="12" t="s">
         <v>76</v>
       </c>
-      <c r="BZ1" s="11" t="s">
+      <c r="BZ1" s="12" t="s">
         <v>77</v>
       </c>
-      <c r="CA1" s="7" t="s">
+      <c r="CA1" s="8" t="s">
         <v>78</v>
       </c>
-      <c r="CB1" s="7" t="s">
+      <c r="CB1" s="8" t="s">
         <v>79</v>
       </c>
     </row>
@@ -2252,13 +2264,13 @@
       <c r="F2" t="s">
         <v>85</v>
       </c>
-      <c r="G2" s="6" t="s">
+      <c r="G2" s="7" t="s">
         <v>86</v>
       </c>
-      <c r="H2" s="6" t="s">
+      <c r="H2" s="7" t="s">
         <v>87</v>
       </c>
-      <c r="I2" s="6" t="s">
+      <c r="I2" s="7" t="s">
         <v>88</v>
       </c>
       <c r="J2" t="s">
@@ -2279,7 +2291,7 @@
       <c r="O2" t="s">
         <v>94</v>
       </c>
-      <c r="P2" s="6" t="s">
+      <c r="P2" s="7" t="s">
         <v>95</v>
       </c>
       <c r="Q2" t="s">
@@ -2288,19 +2300,19 @@
       <c r="R2" t="s">
         <v>97</v>
       </c>
-      <c r="S2" s="6" t="s">
+      <c r="S2" s="7" t="s">
         <v>98</v>
       </c>
-      <c r="T2" s="12" t="s">
+      <c r="T2" s="13" t="s">
         <v>99</v>
       </c>
       <c r="U2" t="s">
         <v>100</v>
       </c>
-      <c r="V2" s="6" t="s">
+      <c r="V2" s="7" t="s">
         <v>98</v>
       </c>
-      <c r="W2" s="12" t="s">
+      <c r="W2" s="13" t="s">
         <v>101</v>
       </c>
       <c r="X2" t="s">
@@ -2312,7 +2324,7 @@
       <c r="Z2" t="s">
         <v>104</v>
       </c>
-      <c r="AA2" s="6" t="s">
+      <c r="AA2" s="7" t="s">
         <v>104</v>
       </c>
       <c r="AB2" t="s">
@@ -2324,7 +2336,7 @@
       <c r="AD2" t="s">
         <v>104</v>
       </c>
-      <c r="AE2" s="6" t="s">
+      <c r="AE2" s="7" t="s">
         <v>98</v>
       </c>
       <c r="AF2" t="s">
@@ -2333,7 +2345,7 @@
       <c r="AG2" t="s">
         <v>104</v>
       </c>
-      <c r="AH2" s="6">
+      <c r="AH2" s="7">
         <v>45877</v>
       </c>
       <c r="AI2" t="s">
@@ -2342,7 +2354,7 @@
       <c r="AJ2" t="s">
         <v>104</v>
       </c>
-      <c r="AK2" s="6" t="s">
+      <c r="AK2" s="7" t="s">
         <v>98</v>
       </c>
       <c r="AL2" t="s">
@@ -2351,7 +2363,7 @@
       <c r="AM2" t="s">
         <v>104</v>
       </c>
-      <c r="AN2" s="6" t="s">
+      <c r="AN2" s="7" t="s">
         <v>104</v>
       </c>
       <c r="AO2" t="s">
@@ -2378,7 +2390,7 @@
       <c r="AV2">
         <v>1587423690</v>
       </c>
-      <c r="AW2" s="10" t="s">
+      <c r="AW2" s="11" t="s">
         <v>110</v>
       </c>
       <c r="AX2" t="s">
@@ -2405,7 +2417,7 @@
       <c r="BE2" t="s">
         <v>114</v>
       </c>
-      <c r="BF2" s="12" t="s">
+      <c r="BF2" s="13" t="s">
         <v>115</v>
       </c>
       <c r="BG2" t="s">
@@ -2459,36 +2471,36 @@
       <c r="CA2" t="s">
         <v>117</v>
       </c>
-      <c r="CB2" s="10" t="s">
+      <c r="CB2" s="11" t="s">
         <v>118</v>
       </c>
     </row>
     <row r="3" spans="80:80">
-      <c r="CB3" s="10"/>
+      <c r="CB3" s="11"/>
     </row>
     <row r="4" spans="80:80">
-      <c r="CB4" s="10"/>
+      <c r="CB4" s="11"/>
     </row>
     <row r="5" spans="80:80">
-      <c r="CB5" s="10"/>
+      <c r="CB5" s="11"/>
     </row>
     <row r="6" spans="80:80">
-      <c r="CB6" s="10"/>
+      <c r="CB6" s="11"/>
     </row>
     <row r="7" spans="80:80">
-      <c r="CB7" s="10"/>
+      <c r="CB7" s="11"/>
     </row>
     <row r="8" spans="80:80">
-      <c r="CB8" s="10"/>
+      <c r="CB8" s="11"/>
     </row>
     <row r="9" spans="80:80">
-      <c r="CB9" s="10"/>
+      <c r="CB9" s="11"/>
     </row>
     <row r="10" spans="80:80">
-      <c r="CB10" s="10"/>
+      <c r="CB10" s="11"/>
     </row>
     <row r="11" spans="80:80">
-      <c r="CB11" s="10"/>
+      <c r="CB11" s="11"/>
     </row>
   </sheetData>
   <dataValidations count="10">
@@ -2500,6 +2512,9 @@
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Q2">
       <formula1>list!$AB$14:$AB$27</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="CA2 CA3:CA4 CA5:CA11">
+      <formula1>list!$Z$15:$Z$17</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A3:A11">
       <formula1>list!$B$2:$B$75</formula1>
@@ -2519,9 +2534,6 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AU2:AU11">
       <formula1>list!$AC$2:$AC$9</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="CA2:CA11 BY2:BZ11">
-      <formula1>list!$Z$15:$Z$17</formula1>
-    </dataValidation>
   </dataValidations>
   <hyperlinks>
     <hyperlink ref="CB2" r:id="rId1" display="ffemp@123"/>
@@ -2537,8 +2549,8 @@
   <sheetPr/>
   <dimension ref="A1:CH38"/>
   <sheetViews>
-    <sheetView topLeftCell="P1" workbookViewId="0">
-      <selection activeCell="AA30" sqref="AA30"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
@@ -3007,119 +3019,125 @@
         <v>184</v>
       </c>
     </row>
-    <row r="18" s="1" customFormat="1" spans="15:28">
+    <row r="18" s="1" customFormat="1" ht="15" spans="1:28">
+      <c r="A18" s="1">
+        <v>17</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>185</v>
+      </c>
       <c r="O18" s="1" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="P18" s="1">
         <v>33</v>
       </c>
       <c r="AB18" s="1" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
     </row>
     <row r="19" s="1" customFormat="1" spans="15:28">
       <c r="O19" s="1" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="P19" s="1">
         <v>9</v>
       </c>
       <c r="AB19" s="1" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
     </row>
     <row r="20" s="1" customFormat="1" spans="15:28">
       <c r="O20" s="1" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="P20" s="1">
         <v>10</v>
       </c>
       <c r="AB20" s="1" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
     </row>
     <row r="21" s="1" customFormat="1" spans="15:28">
       <c r="O21" s="1" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="P21" s="1">
         <v>27</v>
       </c>
       <c r="AB21" s="1" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
     </row>
     <row r="22" s="1" customFormat="1" spans="15:28">
       <c r="O22" s="1" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="P22" s="1">
         <v>11</v>
       </c>
-      <c r="AB22" s="4" t="s">
-        <v>194</v>
+      <c r="AB22" s="5" t="s">
+        <v>195</v>
       </c>
     </row>
     <row r="23" s="1" customFormat="1" spans="15:28">
       <c r="O23" s="1" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="P23" s="1">
         <v>12</v>
       </c>
       <c r="AB23" s="1" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
     </row>
     <row r="24" s="1" customFormat="1" spans="15:28">
       <c r="O24" s="1" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="P24" s="1">
         <v>13</v>
       </c>
       <c r="AB24" s="1" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
     </row>
     <row r="25" s="1" customFormat="1" spans="15:28">
       <c r="O25" s="1" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="P25" s="1">
         <v>14</v>
       </c>
       <c r="AB25" s="1" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
     </row>
     <row r="26" s="1" customFormat="1" spans="15:28">
       <c r="O26" s="1" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="P26" s="1">
         <v>15</v>
       </c>
       <c r="AB26" s="1" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
     </row>
     <row r="27" s="1" customFormat="1" spans="15:28">
       <c r="O27" s="1" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="P27" s="1">
         <v>16</v>
       </c>
       <c r="AB27" s="1" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
     </row>
     <row r="28" s="1" customFormat="1" spans="15:16">
       <c r="O28" s="1" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="P28" s="1">
         <v>17</v>
@@ -3127,7 +3145,7 @@
     </row>
     <row r="29" s="1" customFormat="1" spans="15:16">
       <c r="O29" s="1" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="P29" s="1">
         <v>26</v>
@@ -3135,7 +3153,7 @@
     </row>
     <row r="30" s="1" customFormat="1" spans="15:16">
       <c r="O30" s="1" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="P30" s="1">
         <v>18</v>
@@ -3143,7 +3161,7 @@
     </row>
     <row r="31" s="1" customFormat="1" spans="15:16">
       <c r="O31" s="1" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="P31" s="1">
         <v>19</v>
@@ -3151,7 +3169,7 @@
     </row>
     <row r="32" s="1" customFormat="1" spans="15:16">
       <c r="O32" s="1" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="P32" s="1">
         <v>20</v>
@@ -3159,7 +3177,7 @@
     </row>
     <row r="33" s="1" customFormat="1" spans="15:16">
       <c r="O33" s="1" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="P33" s="1">
         <v>21</v>
@@ -3167,7 +3185,7 @@
     </row>
     <row r="34" s="1" customFormat="1" spans="15:16">
       <c r="O34" s="1" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="P34" s="1">
         <v>36</v>
@@ -3175,7 +3193,7 @@
     </row>
     <row r="35" s="1" customFormat="1" spans="15:16">
       <c r="O35" s="1" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="P35" s="1">
         <v>22</v>
@@ -3183,7 +3201,7 @@
     </row>
     <row r="36" s="1" customFormat="1" spans="15:16">
       <c r="O36" s="1" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="P36" s="1">
         <v>23</v>
@@ -3191,7 +3209,7 @@
     </row>
     <row r="37" s="1" customFormat="1" spans="15:16">
       <c r="O37" s="1" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="P37" s="1">
         <v>32</v>
@@ -3199,7 +3217,7 @@
     </row>
     <row r="38" s="1" customFormat="1" spans="15:16">
       <c r="O38" s="1" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="P38" s="1">
         <v>24</v>
